--- a/notebooks/centrality_df.xlsx
+++ b/notebooks/centrality_df.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D369"/>
+  <dimension ref="A1:D505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,5889 +453,8065 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Argentina_16</t>
+          <t>Albania_15</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01362397820163488</v>
+        <v>0.001988071570576541</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001244439087173447</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09006104018181169</v>
+        <v>0.2140901874899107</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Colombia_19</t>
+          <t>Hungary_15</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.05449591280653951</v>
+        <v>0.01192842942345924</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005110052385993161</v>
+        <v>0.02345290804970972</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1145776566757493</v>
+        <v>0.2730064793960489</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Costa Rica_17</t>
+          <t>Argentina_14</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03542234332425068</v>
+        <v>0.007952286282306162</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0009372710328530093</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.09915374135401384</v>
+        <v>0.2541493308192084</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Costa Rica_19</t>
+          <t>Brazil_16</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06539509536784741</v>
+        <v>0.1172962226640159</v>
       </c>
       <c r="C5" t="n">
-        <v>0.007936019042036366</v>
+        <v>0.00268348219086947</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1280992434884154</v>
+        <v>0.293656761041849</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>North Macedonia_20</t>
+          <t>Colombia_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.008174386920980926</v>
+        <v>0.1451292246520875</v>
       </c>
       <c r="C6" t="n">
-        <v>7.444796831494469e-06</v>
+        <v>0.01113246821137035</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07812112955164727</v>
+        <v>0.3377052751981263</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Peru_19</t>
+          <t>Croatia_20</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.04632152588555858</v>
+        <v>0.1292246520874751</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001726099930466887</v>
+        <v>0.005678408267936172</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1026068567245516</v>
+        <v>0.3358649194749758</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Argentina_19</t>
+          <t>Peru_19</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.002724795640326975</v>
+        <v>0.1172962226640159</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.004195869174926955</v>
       </c>
       <c r="D8" t="n">
-        <v>0.07753375263772511</v>
+        <v>0.3342709842639081</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Armenia_18</t>
+          <t>Argentina_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.005449591280653951</v>
+        <v>0.1053677932405566</v>
       </c>
       <c r="C9" t="n">
-        <v>2.077866988962977e-06</v>
+        <v>0.008639185492454453</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2508510653049622</v>
+        <v>0.3329167466504148</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>North Macedonia_18</t>
+          <t>Bosnia-Herzegovina_19</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1226158038147139</v>
+        <v>0.1272365805168986</v>
       </c>
       <c r="C10" t="n">
-        <v>0.004201115959036827</v>
+        <v>0.001769634884659695</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3644527492231059</v>
+        <v>0.3358649194749758</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>North Macedonia_19</t>
+          <t>Bosnia-Herzegovina_20</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.05994550408719346</v>
+        <v>0.06958250497017891</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0014226384819364</v>
+        <v>0.001496762613369121</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3417139295142119</v>
+        <v>0.329138652729816</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Armenia_19</t>
+          <t>Brazil_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.002724795640326975</v>
+        <v>0.07157057654075547</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>0.0004337869346623351</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2276777567317555</v>
+        <v>0.2886707855909042</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Luxembourg_8</t>
+          <t>Brazil_15</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.04904632152588555</v>
+        <v>0.08548707753479125</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01271142623887824</v>
+        <v>0.0004667982009123775</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3297139420229102</v>
+        <v>0.2903708491102853</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Australia_7</t>
+          <t>Brazil_17</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.008174386920980926</v>
+        <v>0.121272365805169</v>
       </c>
       <c r="C14" t="n">
-        <v>0.004000656560177711</v>
+        <v>0.001153985651975866</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2222874152533261</v>
+        <v>0.2943580309189638</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>New Zealand_7</t>
+          <t>Brazil_18</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.002724795640326975</v>
+        <v>0.08151093439363816</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>0.0007548294730943956</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1707090366490912</v>
+        <v>0.2901999421949761</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>New Zealand_10</t>
+          <t>Brazil_19</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0108991825613079</v>
+        <v>0.1451292246520875</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001520508734540379</v>
+        <v>0.003486893635872412</v>
       </c>
       <c r="D16" t="n">
-        <v>0.278881099476238</v>
+        <v>0.337936738717796</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>New Zealand_12</t>
+          <t>Brazil_20</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.03814713896457766</v>
+        <v>0.073558648111332</v>
       </c>
       <c r="C17" t="n">
-        <v>0.009338763729777069</v>
+        <v>0.0001968528979486741</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3164830454730342</v>
+        <v>0.2896884264331753</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Australia_8</t>
+          <t>Brazil_21</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.002724795640326975</v>
+        <v>0.09940357852882703</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>0.0005984869041849139</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2227897596945766</v>
+        <v>0.2920910555623604</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Mexico_12</t>
+          <t>Chile_14</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.02997275204359673</v>
+        <v>0.02783300198807157</v>
       </c>
       <c r="C19" t="n">
-        <v>0.004027146867543921</v>
+        <v>4.600076731344558e-06</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3195606763852517</v>
+        <v>0.2828741834706049</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Australia_11</t>
+          <t>Chile_16</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0108991825613079</v>
+        <v>0.007952286282306162</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0004852520983483884</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2738457462912504</v>
+        <v>0.2534959906371539</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Mexico_11</t>
+          <t>Chile_18</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.008174386920980926</v>
+        <v>0.08151093439363816</v>
       </c>
       <c r="C21" t="n">
-        <v>2.788414813250656e-05</v>
+        <v>0.0002152091125182856</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2295331051568106</v>
+        <v>0.2907132675644248</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Mexico_14</t>
+          <t>Chile_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.08991825613079019</v>
+        <v>0.09145129224652086</v>
       </c>
       <c r="C22" t="n">
-        <v>0.001343561592542516</v>
+        <v>0.0001968182065897594</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3539837294967689</v>
+        <v>0.2656517789812847</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>United Kingdom_9</t>
+          <t>Chile_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.0217983651226158</v>
+        <v>0.1650099403578529</v>
       </c>
       <c r="C23" t="n">
-        <v>0.002205466696708242</v>
+        <v>0.003315559326455541</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3061629461641309</v>
+        <v>0.2982756816631969</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>United Kingdom_10</t>
+          <t>Colombia_20</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.2534059945504087</v>
+        <v>0.003976143141153081</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01222950256664161</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4116261739659713</v>
+        <v>0.2497718854048959</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Australia_13</t>
+          <t>Costa Rica_15</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.08446866485013624</v>
+        <v>0.09145129224652086</v>
       </c>
       <c r="C25" t="n">
-        <v>0.00701354353205107</v>
+        <v>0.004064999548696729</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3508344080599649</v>
+        <v>0.3311280737335557</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Austria_15</t>
+          <t>Costa Rica_16</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.3978201634877384</v>
+        <v>0.05566600397614314</v>
       </c>
       <c r="C26" t="n">
-        <v>0.007555626480345337</v>
+        <v>0.0005600071771194554</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4739637916579334</v>
+        <v>0.2859917063742833</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Belgium_10</t>
+          <t>Costa Rica_17</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.1553133514986376</v>
+        <v>0.1133200795228628</v>
       </c>
       <c r="C27" t="n">
-        <v>0.003961079509505198</v>
+        <v>0.005305671523387775</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3769960560797329</v>
+        <v>0.3342709842639081</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Belgium_14</t>
+          <t>Costa Rica_18</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.2752043596730245</v>
+        <v>0.1252485089463221</v>
       </c>
       <c r="C28" t="n">
-        <v>0.002689410784524291</v>
+        <v>0.005055967995547008</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4213011481403852</v>
+        <v>0.3354079604008601</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Canada_9</t>
+          <t>Costa Rica_19</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.0217983651226158</v>
+        <v>0.1709741550695825</v>
       </c>
       <c r="C29" t="n">
-        <v>3.200099504237915e-05</v>
+        <v>0.01105226041736818</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3159758611052889</v>
+        <v>0.3409748975029491</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Canada_13</t>
+          <t>Costa Rica_20</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.02452316076294278</v>
+        <v>0.1133200795228628</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0002054504321510373</v>
+        <v>0.004199237150181629</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3175023145405801</v>
+        <v>0.3333669383294554</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Canada_17</t>
+          <t>Croatia_21</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.3433242506811989</v>
+        <v>0.1451292246520875</v>
       </c>
       <c r="C31" t="n">
-        <v>0.005271375451107251</v>
+        <v>0.004659772983381451</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4522223333250007</v>
+        <v>0.337936738717796</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Denmark_12</t>
+          <t>Dominican Republic_16</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.1934604904632153</v>
+        <v>0.08349900596421471</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0008492249503802116</v>
+        <v>0.0006059087203850813</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3912082089875006</v>
+        <v>0.3304622666147885</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Finland_12</t>
+          <t>Dominican Republic_17</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.1416893732970027</v>
+        <v>0.1153081510934394</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002130803321988998</v>
+        <v>0.001421048601634973</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3734260176698869</v>
+        <v>0.3344977624079135</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>France_15</t>
+          <t>Dominican Republic_19</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.2125340599455041</v>
+        <v>0.08151093439363816</v>
       </c>
       <c r="C34" t="n">
-        <v>0.005690130395538923</v>
+        <v>0.002325286371641534</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3959215609030127</v>
+        <v>0.3304622666147885</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Germany_17</t>
+          <t>Dominican Republic_20</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.3460490463215259</v>
+        <v>0.04572564612326043</v>
       </c>
       <c r="C35" t="n">
-        <v>0.00403919210978629</v>
+        <v>0.001364933735828049</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4511874996102981</v>
+        <v>0.3252306740034726</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Greece_14</t>
+          <t>Ecuador_20</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.2261580381471389</v>
+        <v>0.121272365805169</v>
       </c>
       <c r="C36" t="n">
-        <v>0.01055053072045283</v>
+        <v>0.0007279654652138526</v>
       </c>
       <c r="D36" t="n">
-        <v>0.4015660638079436</v>
+        <v>0.2943580309189638</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Israel_10</t>
+          <t>Ireland_21</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.01907356948228883</v>
+        <v>0.1530815109343936</v>
       </c>
       <c r="C37" t="n">
-        <v>0.00237816912377332</v>
+        <v>0.01029378163848298</v>
       </c>
       <c r="D37" t="n">
-        <v>0.2925355153259648</v>
+        <v>0.3388657744256113</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Netherlands_8</t>
+          <t>Lithuania_20</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.04632152588555858</v>
+        <v>0.1013916500994036</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0004501587030870238</v>
+        <v>0.002011454785890206</v>
       </c>
       <c r="D38" t="n">
-        <v>0.3280681153572384</v>
+        <v>0.3326921064704888</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Netherlands_17</t>
+          <t>Mexico_20</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.3623978201634877</v>
+        <v>0.1053677932405566</v>
       </c>
       <c r="C39" t="n">
-        <v>0.006273743868845966</v>
+        <v>0.0006222382310207534</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4501573911636993</v>
+        <v>0.2895183216613414</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>New Zealand_13</t>
+          <t>Montenegro_17</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.4032697547683923</v>
+        <v>0.003976143141153081</v>
       </c>
       <c r="C40" t="n">
-        <v>0.03085405931639568</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4844445634636371</v>
+        <v>0.2536263898092924</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>New Zealand_15</t>
+          <t>Montenegro_18</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.2888283378746594</v>
+        <v>0.06759443339960237</v>
       </c>
       <c r="C41" t="n">
-        <v>0.006323702579433365</v>
+        <v>0.0006012190326830529</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4267725916227279</v>
+        <v>0.2874925374864515</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>New Zealand_16</t>
+          <t>Montenegro_19</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.2643051771117166</v>
+        <v>0.009940357852882702</v>
       </c>
       <c r="C42" t="n">
-        <v>0.001632350550805195</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0.4116261739659713</v>
+        <v>0.2545429539438639</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>New Zealand_17</t>
+          <t>Montenegro_20</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.2288828337874659</v>
+        <v>0.1232604373757455</v>
       </c>
       <c r="C43" t="n">
-        <v>0.005267992738517702</v>
+        <v>0.003735118605939622</v>
       </c>
       <c r="D43" t="n">
-        <v>0.395128130921243</v>
+        <v>0.2945338720365976</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Norway_7</t>
+          <t>North Macedonia_20</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.0217983651226158</v>
+        <v>0.05964214711729621</v>
       </c>
       <c r="C44" t="n">
-        <v>0.000339959243041464</v>
+        <v>0.0001692930070518749</v>
       </c>
       <c r="D44" t="n">
-        <v>0.3071167248126173</v>
+        <v>0.261842645666099</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Norway_8</t>
+          <t>Panama_16</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.1989100817438692</v>
+        <v>0.06759443339960237</v>
       </c>
       <c r="C45" t="n">
-        <v>0.005778479284915848</v>
+        <v>0.0003996820403894285</v>
       </c>
       <c r="D45" t="n">
-        <v>0.398321085514546</v>
+        <v>0.2624000541720407</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Serbia_19</t>
+          <t>Panama_20</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.3596730245231607</v>
+        <v>0.04373757455268389</v>
       </c>
       <c r="C46" t="n">
-        <v>0.006645638181574336</v>
+        <v>1.085477376467102e-05</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4553555134635111</v>
+        <v>0.2610109591261326</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Sweden_18</t>
+          <t>Peru_18</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.1416893732970027</v>
+        <v>0.08946322067594432</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0006035060566695304</v>
+        <v>0.0002546953588494137</v>
       </c>
       <c r="D47" t="n">
-        <v>0.3651276617216672</v>
+        <v>0.2908847798166752</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>United Kingdom_6</t>
+          <t>Peru_20</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.02452316076294278</v>
+        <v>0.08151093439363816</v>
       </c>
       <c r="C48" t="n">
-        <v>0.005998783334845726</v>
+        <v>0.0002286453325622627</v>
       </c>
       <c r="D48" t="n">
-        <v>0.294281996014478</v>
+        <v>0.2900292363466261</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>United Kingdom_7</t>
+          <t>Portugal_20</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.1961852861035422</v>
+        <v>0.172962226640159</v>
       </c>
       <c r="C49" t="n">
-        <v>0.003278018144752984</v>
+        <v>0.00849485199777724</v>
       </c>
       <c r="D49" t="n">
-        <v>0.3866057594700006</v>
+        <v>0.3412108662901484</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>United Kingdom_11</t>
+          <t>Serbia_20</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.3188010899182561</v>
+        <v>0.073558648111332</v>
       </c>
       <c r="C50" t="n">
-        <v>0.004086604288676746</v>
+        <v>0.00127938215512912</v>
       </c>
       <c r="D50" t="n">
-        <v>0.4410938195295308</v>
+        <v>0.3293585182293016</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>United States_13</t>
+          <t>Slovenia_19</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.02724795640326975</v>
+        <v>0.1351888667992047</v>
       </c>
       <c r="C51" t="n">
-        <v>2.315264771465476e-05</v>
+        <v>0.09758345892110318</v>
       </c>
       <c r="D51" t="n">
-        <v>0.3134641293000004</v>
+        <v>0.3789774802377128</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>United States_14</t>
+          <t>South Africa_20</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.002724795640326975</v>
+        <v>0.1809145129224652</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>0.003575215541354101</v>
       </c>
       <c r="D52" t="n">
-        <v>0.2375529365418076</v>
+        <v>0.299726262485875</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>United States_15</t>
+          <t>Turkey_17</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.1335149863760218</v>
+        <v>0.06759443339960237</v>
       </c>
       <c r="C53" t="n">
-        <v>0.01837656338681928</v>
+        <v>0.1686184781214238</v>
       </c>
       <c r="D53" t="n">
-        <v>0.3777182707465523</v>
+        <v>0.4351718462394213</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>United States_18</t>
+          <t>Turkey_20</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.1525885558583106</v>
+        <v>0.1510934393638171</v>
       </c>
       <c r="C54" t="n">
-        <v>0.002445385391548861</v>
+        <v>0.001925706474299309</v>
       </c>
       <c r="D54" t="n">
-        <v>0.3799016133520237</v>
+        <v>0.2968390739249033</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Australia_15</t>
+          <t>Ukraine_19</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.07901907356948229</v>
+        <v>0.05367793240556659</v>
       </c>
       <c r="C55" t="n">
-        <v>3.161203465947152e-05</v>
+        <v>0.0003385720907075729</v>
       </c>
       <c r="D55" t="n">
-        <v>0.3319342379287883</v>
+        <v>0.2863238686348806</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Belgium_16</t>
+          <t>Ukraine_20</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.3542234332425068</v>
+        <v>0.05765407554671968</v>
       </c>
       <c r="C56" t="n">
-        <v>0.004181328162848643</v>
+        <v>0.0002368703580710541</v>
       </c>
       <c r="D56" t="n">
-        <v>0.4532619248958627</v>
+        <v>0.2822265036000369</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Denmark_15</t>
+          <t>United Kingdom_20</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.2288828337874659</v>
+        <v>0.1709741550695825</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0004682193922288282</v>
+        <v>0.0132402527864179</v>
       </c>
       <c r="D57" t="n">
-        <v>0.3888933675142018</v>
+        <v>0.3409748975029491</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>Finland_16</t>
+          <t>Uruguay_19</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.1689373297002725</v>
+        <v>0.1272365805168986</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0001316055028954802</v>
+        <v>0.0007753860189917718</v>
       </c>
       <c r="D58" t="n">
-        <v>0.3611152698346159</v>
+        <v>0.2947099233647725</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Germany_16</t>
+          <t>Argentina_17</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.335149863760218</v>
+        <v>0.06560636182902584</v>
       </c>
       <c r="C59" t="n">
-        <v>0.003026968097066097</v>
+        <v>4.307931041491002e-05</v>
       </c>
       <c r="D59" t="n">
-        <v>0.4362144631188059</v>
+        <v>0.2886707855909042</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Germany_18</t>
+          <t>Ecuador_18</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.4087193460490463</v>
+        <v>0.0934393638170974</v>
       </c>
       <c r="C60" t="n">
-        <v>0.007469235650006387</v>
+        <v>0.0003150704367869229</v>
       </c>
       <c r="D60" t="n">
-        <v>0.4808998471456105</v>
+        <v>0.2914005329723784</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Germany_19</t>
+          <t>Hungary_19</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.3596730245231607</v>
+        <v>0.09145129224652086</v>
       </c>
       <c r="C61" t="n">
-        <v>0.00511920457626652</v>
+        <v>0.0006754184073771771</v>
       </c>
       <c r="D61" t="n">
-        <v>0.456409577152084</v>
+        <v>0.3306839046205663</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Israel_17</t>
+          <t>Spain_20</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.1498637602179836</v>
+        <v>0.1550695825049702</v>
       </c>
       <c r="C62" t="n">
-        <v>8.332101382915186e-05</v>
+        <v>0.002377486667522958</v>
       </c>
       <c r="D62" t="n">
-        <v>0.3520873880887505</v>
+        <v>0.297196926937471</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Lithuania_19</t>
+          <t>Argentina_18</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.2888283378746594</v>
+        <v>0.009940357852882702</v>
       </c>
       <c r="C63" t="n">
-        <v>0.001466608887082748</v>
+        <v>2.030924068420207e-07</v>
       </c>
       <c r="D63" t="n">
-        <v>0.4213011481403852</v>
+        <v>0.2536263898092924</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Luxembourg_18</t>
+          <t>Argentina_19</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.2561307901907357</v>
+        <v>0.04771371769383698</v>
       </c>
       <c r="C64" t="n">
-        <v>0.00134654869883471</v>
+        <v>1.362997768946158e-05</v>
       </c>
       <c r="D64" t="n">
-        <v>0.398321085514546</v>
+        <v>0.2597732886139433</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Mexico_16</t>
+          <t>Ecuador_19</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.217983651226158</v>
+        <v>0.04970178926441352</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0004495188706178914</v>
+        <v>2.730676996595156e-05</v>
       </c>
       <c r="D65" t="n">
-        <v>0.3919859589059648</v>
+        <v>0.2612876003122758</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Mexico_18</t>
+          <t>Argentina_20</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.2915531335149864</v>
+        <v>0.02186878727634195</v>
       </c>
       <c r="C66" t="n">
-        <v>0.002137955339839621</v>
+        <v>4.025947848752427e-06</v>
       </c>
       <c r="D66" t="n">
-        <v>0.4258508365652274</v>
+        <v>0.257601725072761</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>Netherlands_14</t>
+          <t>Armenia_16</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.3678474114441417</v>
+        <v>0.0198807157057654</v>
       </c>
       <c r="C67" t="n">
-        <v>0.004532751955128943</v>
+        <v>9.73075923365214e-07</v>
       </c>
       <c r="D67" t="n">
-        <v>0.4574685320874717</v>
+        <v>0.3604164486763629</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Netherlands_15</t>
+          <t>Australia_16</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.3133514986376021</v>
+        <v>0.415506958250497</v>
       </c>
       <c r="C68" t="n">
-        <v>0.00206157130368999</v>
+        <v>0.002943230889955302</v>
       </c>
       <c r="D68" t="n">
-        <v>0.4314418759949678</v>
+        <v>0.4682333350325398</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Netherlands_16</t>
+          <t>Canada_19</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.3133514986376021</v>
+        <v>0.3499005964214711</v>
       </c>
       <c r="C69" t="n">
-        <v>0.002113106623950602</v>
+        <v>0.0008339362820775257</v>
       </c>
       <c r="D69" t="n">
-        <v>0.4258508365652274</v>
+        <v>0.4254095787655431</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>New Zealand_18</t>
+          <t>Georgia_16</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.04904632152588555</v>
+        <v>0.09542743538767395</v>
       </c>
       <c r="C70" t="n">
-        <v>3.436546961869589e-05</v>
+        <v>0.0001713955358961033</v>
       </c>
       <c r="D70" t="n">
-        <v>0.3200794437170459</v>
+        <v>0.4005277837443252</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Norway_16</t>
+          <t>Ireland_18</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.335149863760218</v>
+        <v>0.4910536779324055</v>
       </c>
       <c r="C71" t="n">
-        <v>0.002823604503646096</v>
+        <v>0.007245336778408832</v>
       </c>
       <c r="D71" t="n">
-        <v>0.4410938195295308</v>
+        <v>0.5189996860939625</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>Norway_18</t>
+          <t>Malta_16</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.332425068119891</v>
+        <v>0.5089463220675944</v>
       </c>
       <c r="C72" t="n">
-        <v>0.004274132225293786</v>
+        <v>0.01084878984416986</v>
       </c>
       <c r="D72" t="n">
-        <v>0.4410938195295308</v>
+        <v>0.5250795546211549</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Slovakia_19</t>
+          <t>Netherlands_6</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.3242506811989101</v>
+        <v>0.3578528827037773</v>
       </c>
       <c r="C73" t="n">
-        <v>0.001617610032638974</v>
+        <v>0.001245922105424998</v>
       </c>
       <c r="D73" t="n">
-        <v>0.4295619549666673</v>
+        <v>0.4548428983295797</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>Spain_16</t>
+          <t>North Macedonia_17</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.4005449591280654</v>
+        <v>0.2504970178926441</v>
       </c>
       <c r="C74" t="n">
-        <v>0.006633571596355804</v>
+        <v>0.003246604340340183</v>
       </c>
       <c r="D74" t="n">
-        <v>0.4716960223198571</v>
+        <v>0.4328794572337703</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>Spain_17</t>
+          <t>North Macedonia_18</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.4059945504087193</v>
+        <v>0.4294234592445327</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0087259447374634</v>
+        <v>0.007902059935367406</v>
       </c>
       <c r="D75" t="n">
-        <v>0.4785653818682046</v>
+        <v>0.5000504074941829</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Spain_19</t>
+          <t>Spain_13</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.3596730245231607</v>
+        <v>0.4910536779324055</v>
       </c>
       <c r="C76" t="n">
-        <v>0.004551254149300942</v>
+        <v>0.01046252242570687</v>
       </c>
       <c r="D76" t="n">
-        <v>0.456409577152084</v>
+        <v>0.5234073267401957</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Switzerland_16</t>
+          <t>Spain_18</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.2779291553133515</v>
+        <v>0.4254473161033797</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0009352979598671098</v>
+        <v>0.001333957763895457</v>
       </c>
       <c r="D77" t="n">
-        <v>0.40486434769959</v>
+        <v>0.4691243594569595</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Australia_16</t>
+          <t>Armenia_17</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.1798365122615804</v>
+        <v>0.001988071570576541</v>
       </c>
       <c r="C78" t="n">
-        <v>0.01745019850016309</v>
+        <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>0.3799016133520237</v>
+        <v>0.2701642201585011</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>Belgium_11</t>
+          <t>Azerbaijan_17</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.1471389645776567</v>
+        <v>0.04174950298210735</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0004513088533831415</v>
+        <v>0.003946735806300451</v>
       </c>
       <c r="D79" t="n">
-        <v>0.3727201083737245</v>
+        <v>0.371272365805169</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>Belgium_12</t>
+          <t>Armenia_18</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.2970027247956403</v>
+        <v>0.2087475149105368</v>
       </c>
       <c r="C80" t="n">
-        <v>0.004369291691187097</v>
+        <v>0.0005942235277539802</v>
       </c>
       <c r="D80" t="n">
-        <v>0.4249330545898714</v>
+        <v>0.4246767457271873</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>Belgium_13</t>
+          <t>Australia_13</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.2588555858310627</v>
+        <v>0.4493041749502982</v>
       </c>
       <c r="C81" t="n">
-        <v>0.001524842884920666</v>
+        <v>0.008251642038761</v>
       </c>
       <c r="D81" t="n">
-        <v>0.4142204565750006</v>
+        <v>0.4763765234678883</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>Belgium_17</t>
+          <t>Austria_15</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.3133514986376021</v>
+        <v>0.5049701789264412</v>
       </c>
       <c r="C82" t="n">
-        <v>0.002178248951842837</v>
+        <v>0.01026604886262975</v>
       </c>
       <c r="D82" t="n">
-        <v>0.4304998631652844</v>
+        <v>0.5278904730077778</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>Belgium_18</t>
+          <t>Austria_16</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.3160762942779292</v>
+        <v>0.415506958250497</v>
       </c>
       <c r="C83" t="n">
-        <v>0.002966238784942195</v>
+        <v>0.004303380562119838</v>
       </c>
       <c r="D83" t="n">
-        <v>0.4314418759949678</v>
+        <v>0.4740862517204465</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>Canada_6</t>
+          <t>Belgium_10</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.01362397820163488</v>
+        <v>0.4234592445328031</v>
       </c>
       <c r="C84" t="n">
-        <v>3.01744397694518e-05</v>
+        <v>0.005260099321376407</v>
       </c>
       <c r="D84" t="n">
-        <v>0.3095273741439565</v>
+        <v>0.4940377773439523</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>Canada_10</t>
+          <t>Belgium_14</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.01634877384196185</v>
+        <v>0.467196819085487</v>
       </c>
       <c r="C85" t="n">
-        <v>5.689979264868826e-06</v>
+        <v>0.004511213585916999</v>
       </c>
       <c r="D85" t="n">
-        <v>0.3124705821389862</v>
+        <v>0.5062111928021195</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>Canada_11</t>
+          <t>Belgium_16</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.002724795640326975</v>
+        <v>0.4254473161033797</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>0.0009847379907659752</v>
       </c>
       <c r="D86" t="n">
-        <v>0.2505323218928848</v>
+        <v>0.467789090881655</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>Canada_12</t>
+          <t>Belgium_18</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.002724795640326975</v>
+        <v>0.4194831013916501</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>0.004908647774719628</v>
       </c>
       <c r="D87" t="n">
-        <v>0.2505323218928848</v>
+        <v>0.4995437708097917</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>Canada_16</t>
+          <t>Canada_6</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.005449591280653951</v>
+        <v>0.2147117296222664</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>0.0001870115795271258</v>
       </c>
       <c r="D88" t="n">
-        <v>0.261150910370464</v>
+        <v>0.4002026800237535</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>Canada_18</t>
+          <t>Canada_9</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.2752043596730245</v>
+        <v>0.2405566600397614</v>
       </c>
       <c r="C89" t="n">
-        <v>0.004531629718475601</v>
+        <v>0.0002305307829819514</v>
       </c>
       <c r="D89" t="n">
-        <v>0.4168476476315017</v>
+        <v>0.4044706331331127</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>Canada_19</t>
+          <t>Canada_13</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.06267029972752043</v>
+        <v>0.2385685884691849</v>
       </c>
       <c r="C90" t="n">
-        <v>9.629409018478389e-05</v>
+        <v>0.0003328689964547311</v>
       </c>
       <c r="D90" t="n">
-        <v>0.3370409185123082</v>
+        <v>0.4048027108286243</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>France_6</t>
+          <t>Canada_16</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.01907356948228883</v>
+        <v>0.121272365805169</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0001096275250808478</v>
+        <v>0.003960477848026735</v>
       </c>
       <c r="D91" t="n">
-        <v>0.3066390938253504</v>
+        <v>0.3828025635009817</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>France_9</t>
+          <t>Canada_17</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.217983651226158</v>
+        <v>0.4850894632206759</v>
       </c>
       <c r="C92" t="n">
-        <v>0.00238931326203233</v>
+        <v>0.1757625589586044</v>
       </c>
       <c r="D92" t="n">
-        <v>0.3888933675142018</v>
+        <v>0.5533666686748198</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>France_12</t>
+          <t>Canada_18</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.09809264305177111</v>
+        <v>0.4035785288270377</v>
       </c>
       <c r="C93" t="n">
-        <v>0.000300543119937633</v>
+        <v>0.002127411442798712</v>
       </c>
       <c r="D93" t="n">
-        <v>0.3546203908807559</v>
+        <v>0.4862423094568682</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>France_14</t>
+          <t>Denmark_7</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.3051771117166213</v>
+        <v>0.05168986083499005</v>
       </c>
       <c r="C94" t="n">
-        <v>0.008621299656634007</v>
+        <v>2.420780202716265e-05</v>
       </c>
       <c r="D94" t="n">
-        <v>0.4333383238015391</v>
+        <v>0.3879226607311286</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>Hungary_18</t>
+          <t>Estonia_19</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.1471389645776567</v>
+        <v>0.3558648111332007</v>
       </c>
       <c r="C95" t="n">
-        <v>0.004388296226698344</v>
+        <v>0.00368207294899209</v>
       </c>
       <c r="D95" t="n">
-        <v>0.3617778666600006</v>
+        <v>0.4531706817916033</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>Japan_17</t>
+          <t>France_14</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.1171662125340599</v>
+        <v>0.4870775347912524</v>
       </c>
       <c r="C96" t="n">
-        <v>0.002318558095176759</v>
+        <v>0.007360312040002375</v>
       </c>
       <c r="D96" t="n">
-        <v>0.3624428995031255</v>
+        <v>0.5141289903954791</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>Luxembourg_19</t>
+          <t>France_15</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.2697547683923706</v>
+        <v>0.4194831013916501</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0009289743546697452</v>
+        <v>0.003483026022786895</v>
       </c>
       <c r="D97" t="n">
-        <v>0.4032084607969331</v>
+        <v>0.4901090475042389</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>Netherlands_6</t>
+          <t>France_18</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.04359673024523161</v>
+        <v>0.4473161033797216</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0005384646235527302</v>
+        <v>0.005861215780775497</v>
       </c>
       <c r="D98" t="n">
-        <v>0.3313763652600005</v>
+        <v>0.5062111928021195</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>Netherlands_11</t>
+          <t>France_19</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.2697547683923706</v>
+        <v>0.3061630218687872</v>
       </c>
       <c r="C99" t="n">
-        <v>0.003620727916580902</v>
+        <v>0.001100212743736981</v>
       </c>
       <c r="D99" t="n">
-        <v>0.4150924996414743</v>
+        <v>0.4398302424525106</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>Netherlands_13</t>
+          <t>Georgia_17</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.3433242506811989</v>
+        <v>0.2385685884691849</v>
       </c>
       <c r="C100" t="n">
-        <v>0.004333296321592675</v>
+        <v>0.0007910658176810278</v>
       </c>
       <c r="D100" t="n">
-        <v>0.4450766079677207</v>
+        <v>0.4309875015640423</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>Norway_10</t>
+          <t>Georgia_18</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.2997275204359673</v>
+        <v>0.2982107355864811</v>
       </c>
       <c r="C101" t="n">
-        <v>0.01204955369487636</v>
+        <v>0.001575509304669226</v>
       </c>
       <c r="D101" t="n">
-        <v>0.4295619549666673</v>
+        <v>0.4425939872435048</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>Norway_12</t>
+          <t>Georgia_19</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.2125340599455041</v>
+        <v>0.4194831013916501</v>
       </c>
       <c r="C102" t="n">
-        <v>0.006203857531914123</v>
+        <v>0.002512030026026948</v>
       </c>
       <c r="D102" t="n">
-        <v>0.3943378746594006</v>
+        <v>0.4682333350325398</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>Norway_13</t>
+          <t>German Democratic Republic_15</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.2561307901907357</v>
+        <v>0.4254473161033797</v>
       </c>
       <c r="C103" t="n">
-        <v>0.005841511963481001</v>
+        <v>0.003798841033581017</v>
       </c>
       <c r="D103" t="n">
-        <v>0.4107686194368756</v>
+        <v>0.4950298210735586</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>Norway_14</t>
+          <t>Germany_13</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.2643051771117166</v>
+        <v>0.3280318091451292</v>
       </c>
       <c r="C104" t="n">
-        <v>0.003933531465706194</v>
+        <v>0.0004456144503280147</v>
       </c>
       <c r="D104" t="n">
-        <v>0.4124873165893311</v>
+        <v>0.4466029907511453</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>Spain_13</t>
+          <t>Germany_14</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.3896457765667575</v>
+        <v>0.3180914512922465</v>
       </c>
       <c r="C105" t="n">
-        <v>0.009292523138810139</v>
+        <v>0.0004163600974434686</v>
       </c>
       <c r="D105" t="n">
-        <v>0.4694498507850006</v>
+        <v>0.4445894515683178</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>Switzerland_6</t>
+          <t>Germany_17</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.07629427792915532</v>
+        <v>0.441351888667992</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0001053291244954049</v>
+        <v>0.001102454848799179</v>
       </c>
       <c r="D106" t="n">
-        <v>0.3376180433727745</v>
+        <v>0.4727226287528901</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>Switzerland_8</t>
+          <t>Germany_18</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.0108991825613079</v>
+        <v>0.4850894632206759</v>
       </c>
       <c r="C107" t="n">
-        <v>7.602144262292401e-06</v>
+        <v>0.005198341304864292</v>
       </c>
       <c r="D107" t="n">
-        <v>0.2853385489575981</v>
+        <v>0.5093488654847773</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>Switzerland_11</t>
+          <t>Germany_19</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.1771117166212534</v>
+        <v>0.4333996023856859</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0002837005201839752</v>
+        <v>0.001465383455644919</v>
       </c>
       <c r="D108" t="n">
-        <v>0.3755598806280006</v>
+        <v>0.4700187814959623</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>Switzerland_12</t>
+          <t>Greece_14</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.337874659400545</v>
+        <v>0.4850894632206759</v>
       </c>
       <c r="C109" t="n">
-        <v>0.004865250116239826</v>
+        <v>0.005408982739178751</v>
       </c>
       <c r="D109" t="n">
-        <v>0.4450766079677207</v>
+        <v>0.4862423094568682</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>Switzerland_14</t>
+          <t>Greece_15</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.3215258855585831</v>
+        <v>0.4433399602385685</v>
       </c>
       <c r="C110" t="n">
-        <v>0.004011384940262414</v>
+        <v>0.002381482465220217</v>
       </c>
       <c r="D110" t="n">
-        <v>0.4401092351109382</v>
+        <v>0.4736308374536642</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>Turkey_15</t>
+          <t>Greece_17</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.3024523160762942</v>
+        <v>0.4493041749502982</v>
       </c>
       <c r="C111" t="n">
-        <v>0.004214577959858758</v>
+        <v>0.001616067742858236</v>
       </c>
       <c r="D111" t="n">
-        <v>0.4333383238015391</v>
+        <v>0.4749997127064204</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>United Kingdom_15</t>
+          <t>Hungary_18</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.3760217983651226</v>
+        <v>0.3459244532803181</v>
       </c>
       <c r="C112" t="n">
-        <v>0.005771490314672481</v>
+        <v>0.0003695906209911723</v>
       </c>
       <c r="D112" t="n">
-        <v>0.4606750872189259</v>
+        <v>0.4510976228630049</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>United Kingdom_16</t>
+          <t>Iceland_13</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.2806539509536785</v>
+        <v>0.1252485089463221</v>
       </c>
       <c r="C113" t="n">
-        <v>0.004382416376452558</v>
+        <v>0.0003396398359310999</v>
       </c>
       <c r="D113" t="n">
-        <v>0.4213011481403852</v>
+        <v>0.4088305984985608</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>Australia_17</t>
+          <t>Iceland_14</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.1634877384196185</v>
+        <v>0.07753479125248508</v>
       </c>
       <c r="C114" t="n">
-        <v>0.004938039179646528</v>
+        <v>5.774623342954486e-05</v>
       </c>
       <c r="D114" t="n">
-        <v>0.3671674810608944</v>
+        <v>0.3752280835534736</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>Denmark_14</t>
+          <t>Iceland_16</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.2752043596730245</v>
+        <v>0.4493041749502982</v>
       </c>
       <c r="C115" t="n">
-        <v>0.001550706856227323</v>
+        <v>0.001436042625738925</v>
       </c>
       <c r="D115" t="n">
-        <v>0.4116261739659713</v>
+        <v>0.473176297302557</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>Finland_19</t>
+          <t>Ireland_12</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.1989100817438692</v>
+        <v>0.03578528827037773</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0006143487905822187</v>
+        <v>2.02461534672516e-05</v>
       </c>
       <c r="D116" t="n">
-        <v>0.3727201083737245</v>
+        <v>0.3617385926553664</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>France_18</t>
+          <t>Ireland_16</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.3651226158038147</v>
+        <v>0.4214711729622266</v>
       </c>
       <c r="C117" t="n">
-        <v>0.008233819636767128</v>
+        <v>0.001605193734959534</v>
       </c>
       <c r="D117" t="n">
-        <v>0.4606750872189259</v>
+        <v>0.4664614018819909</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>Germany_15</t>
+          <t>Ireland_17</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.2724795640326975</v>
+        <v>0.341948310139165</v>
       </c>
       <c r="C118" t="n">
-        <v>0.001855463613050462</v>
+        <v>0.0004663854458136589</v>
       </c>
       <c r="D118" t="n">
-        <v>0.4168476476315017</v>
+        <v>0.448227001626604</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>Iceland_12</t>
+          <t>Ireland_19</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.002724795640326975</v>
+        <v>0.3817097415506958</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>0.001783340433250112</v>
       </c>
       <c r="D119" t="n">
-        <v>0.2449303569313047</v>
+        <v>0.4814938494035785</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>Ireland_16</t>
+          <t>Israel_10</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.2615803814713896</v>
+        <v>0.2783300198807157</v>
       </c>
       <c r="C120" t="n">
-        <v>0.001207291303261702</v>
+        <v>0.007965354914999357</v>
       </c>
       <c r="D120" t="n">
-        <v>0.4099146306230775</v>
+        <v>0.4386563183178509</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>Ireland_18</t>
+          <t>Italy_13</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.3596730245231607</v>
+        <v>0.3856858846918489</v>
       </c>
       <c r="C121" t="n">
-        <v>0.004993321907225544</v>
+        <v>0.00338366837413593</v>
       </c>
       <c r="D121" t="n">
-        <v>0.456409577152084</v>
+        <v>0.4862423094568682</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>Ireland_19</t>
+          <t>Italy_14</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.215258855585831</v>
+        <v>0.4433399602385685</v>
       </c>
       <c r="C122" t="n">
-        <v>0.0008350914885942521</v>
+        <v>0.003852042282270042</v>
       </c>
       <c r="D122" t="n">
-        <v>0.3912082089875006</v>
+        <v>0.4810240993065994</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>Lithuania_18</t>
+          <t>Italy_15</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.2316076294277929</v>
+        <v>0.3459244532803181</v>
       </c>
       <c r="C123" t="n">
-        <v>0.004560951499597191</v>
+        <v>0.0003377049112692417</v>
       </c>
       <c r="D123" t="n">
-        <v>0.3888933675142018</v>
+        <v>0.4498628665960441</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>Luxembourg_17</t>
+          <t>Italy_17</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.223433242506812</v>
+        <v>0.3996023856858846</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0005412195856761594</v>
+        <v>0.000743858167148998</v>
       </c>
       <c r="D124" t="n">
-        <v>0.3784432578305188</v>
+        <v>0.4625231724101918</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>Malta_16</t>
+          <t>Japan_17</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.337874659400545</v>
+        <v>0.3976143141153081</v>
       </c>
       <c r="C125" t="n">
-        <v>0.008193258983814618</v>
+        <v>0.006354601070192215</v>
       </c>
       <c r="D125" t="n">
-        <v>0.4491319756940781</v>
+        <v>0.488651835271818</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>Mexico_15</t>
+          <t>Lithuania_18</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.1553133514986376</v>
+        <v>0.4174950298210735</v>
       </c>
       <c r="C126" t="n">
-        <v>0.003388371924222521</v>
+        <v>0.002688938474406502</v>
       </c>
       <c r="D126" t="n">
-        <v>0.3835971543379383</v>
+        <v>0.4915749768586883</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>Mexico_17</t>
+          <t>Lithuania_19</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.2370572207084469</v>
+        <v>0.4274353876739562</v>
       </c>
       <c r="C127" t="n">
-        <v>0.005379595900756529</v>
+        <v>0.0008701028848016936</v>
       </c>
       <c r="D127" t="n">
-        <v>0.4065338914014439</v>
+        <v>0.4673456888997767</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>Portugal_18</t>
+          <t>Luxembourg_8</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.3242506811989101</v>
+        <v>0.3320079522862823</v>
       </c>
       <c r="C128" t="n">
-        <v>0.002798236614145863</v>
+        <v>0.006809756088210903</v>
       </c>
       <c r="D128" t="n">
-        <v>0.4267725916227279</v>
+        <v>0.4515107159242348</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>Spain_12</t>
+          <t>Mexico_14</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.332425068119891</v>
+        <v>0.3996023856858846</v>
       </c>
       <c r="C129" t="n">
-        <v>0.004908581615020035</v>
+        <v>0.005508175742215972</v>
       </c>
       <c r="D129" t="n">
-        <v>0.4440741831750007</v>
+        <v>0.489136608917921</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>Spain_15</t>
+          <t>Mexico_15</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.335149863760218</v>
+        <v>0.4751491053677932</v>
       </c>
       <c r="C130" t="n">
-        <v>0.003552404918441715</v>
+        <v>0.01132779189250748</v>
       </c>
       <c r="D130" t="n">
-        <v>0.4440741831750007</v>
+        <v>0.5093488654847773</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>Switzerland_13</t>
+          <t>Mexico_16</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.1008174386920981</v>
+        <v>0.4393638170974155</v>
       </c>
       <c r="C131" t="n">
-        <v>2.822251264200497e-05</v>
+        <v>0.003351316697712548</v>
       </c>
       <c r="D131" t="n">
-        <v>0.3297139420229102</v>
+        <v>0.4975274488287229</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>Switzerland_17</t>
+          <t>Mexico_17</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.1634877384196185</v>
+        <v>0.4711729622266401</v>
       </c>
       <c r="C132" t="n">
-        <v>8.031290108872004e-05</v>
+        <v>0.0053800456321864</v>
       </c>
       <c r="D132" t="n">
-        <v>0.3502112563582598</v>
+        <v>0.5082986616384169</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>United States_19</t>
+          <t>Mexico_18</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.08446866485013624</v>
+        <v>0.4572564612326043</v>
       </c>
       <c r="C133" t="n">
-        <v>0.0001563456566364809</v>
+        <v>0.003252662037314353</v>
       </c>
       <c r="D133" t="n">
-        <v>0.3291635013851424</v>
+        <v>0.5031119406012902</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>Australia_18</t>
+          <t>Netherlands_7</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.002724795640326975</v>
+        <v>0.2524850894632206</v>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>0.001441178312185814</v>
       </c>
       <c r="D134" t="n">
-        <v>0.2570651073398961</v>
+        <v>0.4321206851790223</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>Australia_19</t>
+          <t>Netherlands_8</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.1989100817438692</v>
+        <v>0.3717693836978131</v>
       </c>
       <c r="C135" t="n">
-        <v>0.0005357647956532874</v>
+        <v>0.002545201630916981</v>
       </c>
       <c r="D135" t="n">
-        <v>0.3799016133520237</v>
+        <v>0.457799166006745</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>Italy_15</t>
+          <t>Netherlands_12</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.220708446866485</v>
+        <v>0.4254473161033797</v>
       </c>
       <c r="C136" t="n">
-        <v>0.0003556013152353951</v>
+        <v>0.001784241826013969</v>
       </c>
       <c r="D136" t="n">
-        <v>0.3769960560797329</v>
+        <v>0.4691243594569595</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>Italy_19</t>
+          <t>Netherlands_14</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.1634877384196185</v>
+        <v>0.4393638170974155</v>
       </c>
       <c r="C137" t="n">
-        <v>9.0779336637744e-05</v>
+        <v>0.001129821349353381</v>
       </c>
       <c r="D137" t="n">
-        <v>0.3611152698346159</v>
+        <v>0.4718178964490568</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>Luxembourg_14</t>
+          <t>Netherlands_16</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.3106267029972752</v>
+        <v>0.4115308151093439</v>
       </c>
       <c r="C138" t="n">
-        <v>0.001775816652278813</v>
+        <v>0.0008881203670242206</v>
       </c>
       <c r="D138" t="n">
-        <v>0.4304998631652844</v>
+        <v>0.4642652559220946</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>Netherlands_18</t>
+          <t>New Zealand_6</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.2452316076294278</v>
+        <v>0.2007952286282306</v>
       </c>
       <c r="C139" t="n">
-        <v>0.0008156863323124537</v>
+        <v>0.006900404917207844</v>
       </c>
       <c r="D139" t="n">
-        <v>0.3873652992724956</v>
+        <v>0.4232186281452913</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>Netherlands_19</t>
+          <t>New Zealand_11</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.2670299727520436</v>
+        <v>0.2664015904572564</v>
       </c>
       <c r="C140" t="n">
-        <v>0.001006248246620191</v>
+        <v>0.001182001860736677</v>
       </c>
       <c r="D140" t="n">
-        <v>0.3991274035014176</v>
+        <v>0.4359413808923646</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>Norway_15</t>
+          <t>New Zealand_13</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.2098092643051771</v>
+        <v>0.5109343936381709</v>
       </c>
       <c r="C141" t="n">
-        <v>0.0008435216404974289</v>
+        <v>0.009687158797902103</v>
       </c>
       <c r="D141" t="n">
-        <v>0.3799016133520237</v>
+        <v>0.5195465772278867</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>Norway_17</t>
+          <t>New Zealand_15</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.2534059945504087</v>
+        <v>0.5009940357852882</v>
       </c>
       <c r="C142" t="n">
-        <v>0.001125087191496351</v>
+        <v>0.01215556560019536</v>
       </c>
       <c r="D142" t="n">
-        <v>0.399936992555173</v>
+        <v>0.5189996860939625</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>Portugal_17</t>
+          <t>New Zealand_17</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.2888283378746594</v>
+        <v>0.4115308151093439</v>
       </c>
       <c r="C143" t="n">
-        <v>0.003303193284866811</v>
+        <v>0.002563459976598664</v>
       </c>
       <c r="D143" t="n">
-        <v>0.4133520698735855</v>
+        <v>0.4669031266943792</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>Spain_14</t>
+          <t>North Macedonia_19</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.3242506811989101</v>
+        <v>0.3996023856858846</v>
       </c>
       <c r="C144" t="n">
-        <v>0.004039605356070148</v>
+        <v>0.005403662968001416</v>
       </c>
       <c r="D144" t="n">
-        <v>0.4362144631188059</v>
+        <v>0.487203262637613</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>Spain_18</t>
+          <t>Norway_6</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.2752043596730245</v>
+        <v>0.3538767395626242</v>
       </c>
       <c r="C145" t="n">
-        <v>0.001904886414835946</v>
+        <v>0.001428835906698214</v>
       </c>
       <c r="D145" t="n">
-        <v>0.4124873165893311</v>
+        <v>0.4540052502663576</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>Australia_20</t>
+          <t>Norway_8</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.0108991825613079</v>
+        <v>0.4811133200795228</v>
       </c>
       <c r="C146" t="n">
-        <v>0.0002376146978190559</v>
+        <v>0.006770270564261529</v>
       </c>
       <c r="D146" t="n">
-        <v>0.08702100507018937</v>
+        <v>0.4838564296263635</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>Canada_20</t>
+          <t>Norway_10</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.008174386920980926</v>
+        <v>0.4731610337972166</v>
       </c>
       <c r="C147" t="n">
-        <v>6.700317148345021e-06</v>
+        <v>0.005372352174556532</v>
       </c>
       <c r="D147" t="n">
-        <v>0.07610324059643866</v>
+        <v>0.5067314509653282</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>Chile_21</t>
+          <t>Norway_16</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.07084468664850135</v>
+        <v>0.4473161033797216</v>
       </c>
       <c r="C148" t="n">
-        <v>0.01107165330315135</v>
+        <v>0.001328252507984538</v>
       </c>
       <c r="D148" t="n">
-        <v>0.1322049884720184</v>
+        <v>0.473176297302557</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>New Zealand_20</t>
+          <t>Norway_18</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.0108991825613079</v>
+        <v>0.4393638170974155</v>
       </c>
       <c r="C149" t="n">
-        <v>0.0001053914042041856</v>
+        <v>0.003140423507413387</v>
       </c>
       <c r="D149" t="n">
-        <v>0.08738973814252067</v>
+        <v>0.4786890308633635</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>New Zealand_21</t>
+          <t>Portugal_13</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.005449591280653951</v>
+        <v>0.3797216699801192</v>
       </c>
       <c r="C150" t="n">
-        <v>6.700317148345021e-06</v>
+        <v>0.001791996536273416</v>
       </c>
       <c r="D150" t="n">
-        <v>0.07582344927071645</v>
+        <v>0.4603638672168669</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>Australia_21</t>
+          <t>Portugal_15</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.02724795640326975</v>
+        <v>0.467196819085487</v>
       </c>
       <c r="C151" t="n">
-        <v>0.003361306163619261</v>
+        <v>0.01176923434148515</v>
       </c>
       <c r="D151" t="n">
-        <v>0.1097020117108238</v>
+        <v>0.5088232216607477</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>Israel_21</t>
+          <t>Portugal_16</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.01362397820163488</v>
+        <v>0.4990059642147117</v>
       </c>
       <c r="C152" t="n">
-        <v>0.0003732571883894587</v>
+        <v>0.008653092998611781</v>
       </c>
       <c r="D152" t="n">
-        <v>0.09592548000760408</v>
+        <v>0.5179093506189753</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>Portugal_20</t>
+          <t>Serbia_18</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.08174386920980926</v>
+        <v>0.4055666003976143</v>
       </c>
       <c r="C153" t="n">
-        <v>0.008460245946853105</v>
+        <v>0.001298754835108437</v>
       </c>
       <c r="D153" t="n">
-        <v>0.1313629184817508</v>
+        <v>0.4651412281030796</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>South Africa_20</t>
+          <t>Serbia_19</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.06811989100817438</v>
+        <v>0.5168986083499005</v>
       </c>
       <c r="C154" t="n">
-        <v>0.005677741652130968</v>
+        <v>0.01280220675593975</v>
       </c>
       <c r="D154" t="n">
-        <v>0.130531507605284</v>
+        <v>0.5318767009592927</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>United Kingdom_20</t>
+          <t>South Korea_16</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.08174386920980926</v>
+        <v>0.01192842942345924</v>
       </c>
       <c r="C155" t="n">
-        <v>0.007094942414289303</v>
+        <v>1.898533537396317e-07</v>
       </c>
       <c r="D155" t="n">
-        <v>0.128899863760218</v>
+        <v>0.3526821901210761</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>United States_21</t>
+          <t>Spain_15</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.005449591280653951</v>
+        <v>0.467196819085487</v>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>0.00337785710641845</v>
       </c>
       <c r="D156" t="n">
-        <v>0.07724336405106697</v>
+        <v>0.5046568083820515</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>Austria_8</t>
+          <t>Spain_16</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.002724795640326975</v>
+        <v>0.4910536779324055</v>
       </c>
       <c r="C157" t="n">
-        <v>0</v>
+        <v>0.009716902332000538</v>
       </c>
       <c r="D157" t="n">
-        <v>0.202640223360432</v>
+        <v>0.5234073267401957</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>Luxembourg_12</t>
+          <t>Spain_17</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.01362397820163488</v>
+        <v>0.5009940357852882</v>
       </c>
       <c r="C158" t="n">
-        <v>0.006761082032970018</v>
+        <v>0.01027852791603393</v>
       </c>
       <c r="D158" t="n">
-        <v>0.2796722515314898</v>
+        <v>0.5267625019116072</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>Austria_9</t>
+          <t>Sweden_11</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.005449591280653951</v>
+        <v>0.268389662027833</v>
       </c>
       <c r="C159" t="n">
-        <v>0.000134976810971393</v>
+        <v>0.0002814388983760285</v>
       </c>
       <c r="D159" t="n">
-        <v>0.2314189405278173</v>
+        <v>0.4347880968159298</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>Luxembourg_9</t>
+          <t>Sweden_12</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.01362397820163488</v>
+        <v>0.1749502982107356</v>
       </c>
       <c r="C160" t="n">
-        <v>0.005939281986725594</v>
+        <v>0.0001877717259918789</v>
       </c>
       <c r="D160" t="n">
-        <v>0.2625418606254332</v>
+        <v>0.4153746434618908</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>Austria_10</t>
+          <t>Switzerland_7</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.005449591280653951</v>
+        <v>0.09940357852882703</v>
       </c>
       <c r="C161" t="n">
-        <v>0.000134976810971393</v>
+        <v>0.0001007840375587283</v>
       </c>
       <c r="D161" t="n">
-        <v>0.2314189405278173</v>
+        <v>0.4005277837443252</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>Austria_11</t>
+          <t>Switzerland_8</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.008174386920980926</v>
+        <v>0.3260437375745526</v>
       </c>
       <c r="C162" t="n">
-        <v>4.663839197985762e-06</v>
+        <v>0.0007052500537837478</v>
       </c>
       <c r="D162" t="n">
-        <v>0.2853385489575981</v>
+        <v>0.447819892633301</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>Netherlands_12</t>
+          <t>Switzerland_11</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.223433242506812</v>
+        <v>0.3558648111332007</v>
       </c>
       <c r="C163" t="n">
-        <v>0.01604392870544916</v>
+        <v>0.0006362650385079758</v>
       </c>
       <c r="D163" t="n">
-        <v>0.4040347076428285</v>
+        <v>0.4519245662596374</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>United Kingdom_19</t>
+          <t>Switzerland_12</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.07356948228882834</v>
+        <v>0.4850894632206759</v>
       </c>
       <c r="C164" t="n">
-        <v>0.000682765361198397</v>
+        <v>0.008776875613405247</v>
       </c>
       <c r="D164" t="n">
-        <v>0.3330556373812505</v>
+        <v>0.5184539450991213</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>Austria_12</t>
+          <t>Switzerland_14</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.005449591280653951</v>
+        <v>0.4731610337972166</v>
       </c>
       <c r="C165" t="n">
-        <v>0.0001200473489078483</v>
+        <v>0.007110813845441682</v>
       </c>
       <c r="D165" t="n">
-        <v>0.2113279071057881</v>
+        <v>0.5146656594877499</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>Austria_13</t>
+          <t>Turkey_14</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.005449591280653951</v>
+        <v>0.489065606361829</v>
       </c>
       <c r="C166" t="n">
-        <v>0.003990411101681035</v>
+        <v>0.007094208182169531</v>
       </c>
       <c r="D166" t="n">
-        <v>0.2614972643629978</v>
+        <v>0.4862423094568682</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>United States_8</t>
+          <t>Turkey_15</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.002724795640326975</v>
+        <v>0.4751491053677932</v>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
+        <v>0.002831509403582958</v>
       </c>
       <c r="D167" t="n">
-        <v>0.192924596213014</v>
+        <v>0.4824361074258947</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>Austria_14</t>
+          <t>Turkey_18</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.002724795640326975</v>
+        <v>0.4035785288270377</v>
       </c>
       <c r="C168" t="n">
-        <v>0</v>
+        <v>0.001361975191732758</v>
       </c>
       <c r="D168" t="n">
-        <v>0.2554001778882128</v>
+        <v>0.4647028292076008</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>Turkey_18</t>
+          <t>Ukraine_18</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.2070844686648501</v>
+        <v>0.2127236580516898</v>
       </c>
       <c r="C169" t="n">
-        <v>0.004754110767028197</v>
+        <v>0.0001487662910037387</v>
       </c>
       <c r="D169" t="n">
-        <v>0.3912082089875006</v>
+        <v>0.4243112752059074</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>Belgium_7</t>
+          <t>United Kingdom_11</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.1362397820163488</v>
+        <v>0.4691848906560636</v>
       </c>
       <c r="C170" t="n">
-        <v>0.002267373412538814</v>
+        <v>0.006327747571675449</v>
       </c>
       <c r="D170" t="n">
-        <v>0.3685400697751408</v>
+        <v>0.5093488654847773</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>Belgium_15</t>
+          <t>United Kingdom_13</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.1907356948228883</v>
+        <v>0.4691848906560636</v>
       </c>
       <c r="C171" t="n">
-        <v>0.0006586077191036478</v>
+        <v>0.006695097393441401</v>
       </c>
       <c r="D171" t="n">
-        <v>0.3734260176698869</v>
+        <v>0.5067314509653282</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>Canada_15</t>
+          <t>United Kingdom_15</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0.08446866485013624</v>
+        <v>0.489065606361829</v>
       </c>
       <c r="C172" t="n">
-        <v>2.83000271945703e-05</v>
+        <v>0.01023337097440785</v>
       </c>
       <c r="D172" t="n">
-        <v>0.3405335705176171</v>
+        <v>0.5228522818549993</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>Cyprus_17</t>
+          <t>United Kingdom_16</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.1580381471389646</v>
+        <v>0.4433399602385685</v>
       </c>
       <c r="C173" t="n">
-        <v>9.097583221705517e-05</v>
+        <v>0.001419070562318475</v>
       </c>
       <c r="D173" t="n">
-        <v>0.3685400697751408</v>
+        <v>0.4736308374536642</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>Estonia_19</t>
+          <t>United States_15</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0.05722070844686648</v>
+        <v>0.4453280318091451</v>
       </c>
       <c r="C174" t="n">
-        <v>0.0002584283500937969</v>
+        <v>0.004809121532400333</v>
       </c>
       <c r="D174" t="n">
-        <v>0.3221714662250005</v>
+        <v>0.4749997127064204</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>France_8</t>
+          <t>United States_17</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0.09809264305177111</v>
+        <v>0.3518886679920477</v>
       </c>
       <c r="C175" t="n">
-        <v>0.001407981642272366</v>
+        <v>0.0005642937892993419</v>
       </c>
       <c r="D175" t="n">
-        <v>0.3533493500532263</v>
+        <v>0.4531706817916033</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>France_10</t>
+          <t>United States_18</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0.1226158038147139</v>
+        <v>0.4294234592445327</v>
       </c>
       <c r="C176" t="n">
-        <v>0.0003344157503968896</v>
+        <v>0.002864883736400666</v>
       </c>
       <c r="D176" t="n">
-        <v>0.3611152698346159</v>
+        <v>0.4718178964490568</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>France_11</t>
+          <t>Armenia_19</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0.1389645776566757</v>
+        <v>0.09542743538767395</v>
       </c>
       <c r="C177" t="n">
-        <v>0.001412239396298748</v>
+        <v>0.0003351221011994904</v>
       </c>
       <c r="D177" t="n">
-        <v>0.3734260176698869</v>
+        <v>0.3804395847139386</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>France_16</t>
+          <t>Austria_8</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0.01362397820163488</v>
+        <v>0.09741550695825049</v>
       </c>
       <c r="C178" t="n">
-        <v>3.545141348330699e-07</v>
+        <v>0.004157927631075197</v>
       </c>
       <c r="D178" t="n">
-        <v>0.3080764645776567</v>
+        <v>0.3810275902544547</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>France_17</t>
+          <t>Austria_9</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0.09536784741144413</v>
+        <v>0.0636182902584493</v>
       </c>
       <c r="C179" t="n">
-        <v>3.873943801195029e-05</v>
+        <v>0.0001393949972634288</v>
       </c>
       <c r="D179" t="n">
-        <v>0.3376180433727745</v>
+        <v>0.3684975349695549</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>France_19</t>
+          <t>Austria_10</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0.1880108991825613</v>
+        <v>0.1053677932405566</v>
       </c>
       <c r="C180" t="n">
-        <v>0.0002557465158504927</v>
+        <v>0.0002736671353651618</v>
       </c>
       <c r="D180" t="n">
-        <v>0.355900608898376</v>
+        <v>0.3813222751657111</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>German Democratic Republic_15</t>
+          <t>Austria_12</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0.1798365122615804</v>
+        <v>0.1451292246520875</v>
       </c>
       <c r="C181" t="n">
-        <v>0.004451392016824819</v>
+        <v>0.0003668070217808106</v>
       </c>
       <c r="D181" t="n">
-        <v>0.3850955807220709</v>
+        <v>0.3882281116450901</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>Germany_13</t>
+          <t>Austria_13</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0.08174386920980926</v>
+        <v>0.1769383697813121</v>
       </c>
       <c r="C182" t="n">
-        <v>0.0005815823772552678</v>
+        <v>0.004082738009062595</v>
       </c>
       <c r="D182" t="n">
-        <v>0.3411227289441182</v>
+        <v>0.3934953725373219</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>Germany_14</t>
+          <t>Denmark_9</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0.05994550408719346</v>
+        <v>0.3399602385685884</v>
       </c>
       <c r="C183" t="n">
-        <v>4.972837100963855e-05</v>
+        <v>0.001685074769866187</v>
       </c>
       <c r="D183" t="n">
-        <v>0.3330556373812505</v>
+        <v>0.4494527819409885</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>Greece_13</t>
+          <t>Estonia_18</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0.215258855585831</v>
+        <v>0.3041749502982107</v>
       </c>
       <c r="C184" t="n">
-        <v>0.003044613934984907</v>
+        <v>0.001739241386703576</v>
       </c>
       <c r="D184" t="n">
-        <v>0.395128130921243</v>
+        <v>0.4421970419634658</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>Greece_15</t>
+          <t>Germany_9</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0.217983651226158</v>
+        <v>0.007952286282306162</v>
       </c>
       <c r="C185" t="n">
-        <v>0.00113605718763389</v>
+        <v>0</v>
       </c>
       <c r="D185" t="n">
-        <v>0.3904335392667332</v>
+        <v>0.342871837127444</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>Greece_17</t>
+          <t>Greece_12</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0.2833787465940054</v>
+        <v>0.2882703777335984</v>
       </c>
       <c r="C186" t="n">
-        <v>0.002206313346922575</v>
+        <v>0.0005544409893345596</v>
       </c>
       <c r="D186" t="n">
-        <v>0.4168476476315017</v>
+        <v>0.4398302424525106</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>Iceland_15</t>
+          <t>Iceland_17</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0.08719346049046321</v>
+        <v>0.441351888667992</v>
       </c>
       <c r="C187" t="n">
-        <v>0.0001255004220553981</v>
+        <v>0.001441021959255897</v>
       </c>
       <c r="D187" t="n">
-        <v>0.3477406302111116</v>
+        <v>0.4727226287528901</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>Iceland_16</t>
+          <t>Italy_16</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0.2615803814713896</v>
+        <v>0.2067594433399602</v>
       </c>
       <c r="C188" t="n">
-        <v>0.001299491654060207</v>
+        <v>0.000314538586762374</v>
       </c>
       <c r="D188" t="n">
-        <v>0.4150924996414743</v>
+        <v>0.4210501296236246</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>Iceland_17</t>
+          <t>Luxembourg_7</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0.223433242506812</v>
+        <v>0.1530815109343936</v>
       </c>
       <c r="C189" t="n">
-        <v>0.003624425855012482</v>
+        <v>0.0005759563509610094</v>
       </c>
       <c r="D189" t="n">
-        <v>0.3975180188098796</v>
+        <v>0.3900709666054307</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>Iceland_18</t>
+          <t>Luxembourg_9</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0.1716621253405994</v>
+        <v>0.2067594433399602</v>
       </c>
       <c r="C190" t="n">
-        <v>0.0006766568261134463</v>
+        <v>0.0005547131906511074</v>
       </c>
       <c r="D190" t="n">
-        <v>0.3604550956667281</v>
+        <v>0.3982630870672572</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>Ireland_17</t>
+          <t>New Zealand_12</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0.1226158038147139</v>
+        <v>0.3499005964214711</v>
       </c>
       <c r="C191" t="n">
-        <v>0.0009246649786806105</v>
+        <v>0.003536455523338683</v>
       </c>
       <c r="D191" t="n">
-        <v>0.3520873880887505</v>
+        <v>0.4544236882850363</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>Italy_9</t>
+          <t>Sweden_15</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0.06539509536784741</v>
+        <v>0.1232604373757455</v>
       </c>
       <c r="C192" t="n">
-        <v>2.277790819856456e-05</v>
+        <v>0.000331849661623666</v>
       </c>
       <c r="D192" t="n">
-        <v>0.3387782428345366</v>
+        <v>0.3831000013902598</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>Italy_12</t>
+          <t>Turkey_12</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0.01907356948228883</v>
+        <v>0.3876739562624254</v>
       </c>
       <c r="C193" t="n">
-        <v>2.609440483655754e-07</v>
+        <v>0.001807573171073665</v>
       </c>
       <c r="D193" t="n">
-        <v>0.3119761666609182</v>
+        <v>0.4616570241472513</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>Italy_13</t>
+          <t>United Kingdom_12</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0.2016348773841962</v>
+        <v>0.1749502982107356</v>
       </c>
       <c r="C194" t="n">
-        <v>0.0003255199855022466</v>
+        <v>0.0001757646953817763</v>
       </c>
       <c r="D194" t="n">
-        <v>0.3866057594700006</v>
+        <v>0.3928682882782983</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>Italy_14</t>
+          <t>United Kingdom_19</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0.2697547683923706</v>
+        <v>0.36779324055666</v>
       </c>
       <c r="C195" t="n">
-        <v>0.00245685508615999</v>
+        <v>0.001931450387273405</v>
       </c>
       <c r="D195" t="n">
-        <v>0.4186177013369433</v>
+        <v>0.4561051820437229</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>Italy_17</t>
+          <t>United States_8</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>0.2479564032697548</v>
+        <v>0.09741550695825049</v>
       </c>
       <c r="C196" t="n">
-        <v>0.001105992704377109</v>
+        <v>9.225675781768818e-05</v>
       </c>
       <c r="D196" t="n">
-        <v>0.3959215609030127</v>
+        <v>0.3822090711544686</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>Luxembourg_13</t>
+          <t>United States_16</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0.2098092643051771</v>
+        <v>0.1630218687872763</v>
       </c>
       <c r="C197" t="n">
-        <v>0.001092892920894995</v>
+        <v>0.0003337637385339353</v>
       </c>
       <c r="D197" t="n">
-        <v>0.385849192426028</v>
+        <v>0.413979598479651</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>Luxembourg_15</t>
+          <t>Armenia_20</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0.08719346049046321</v>
+        <v>0.001988071570576541</v>
       </c>
       <c r="C198" t="n">
-        <v>9.647499263249781e-06</v>
+        <v>0</v>
       </c>
       <c r="D198" t="n">
-        <v>0.3248252674294898</v>
+        <v>0.2525869373920412</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>Norway_11</t>
+          <t>Armenia_21</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0.1961852861035422</v>
+        <v>0.005964214711729622</v>
       </c>
       <c r="C199" t="n">
-        <v>0.001582676249694918</v>
+        <v>3.443740811669047e-07</v>
       </c>
       <c r="D199" t="n">
-        <v>0.3888933675142018</v>
+        <v>0.2537569232060033</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>Portugal_12</t>
+          <t>Australia_6</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0.1771117166212534</v>
+        <v>0.03180914512922465</v>
       </c>
       <c r="C200" t="n">
-        <v>0.001653148843823424</v>
+        <v>2.472827318641017e-05</v>
       </c>
       <c r="D200" t="n">
-        <v>0.3755598806280006</v>
+        <v>0.3583210042073142</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>Portugal_13</t>
+          <t>Austria_11</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0.1198910081743869</v>
+        <v>0.2226640159045725</v>
       </c>
       <c r="C201" t="n">
-        <v>0.004132959116080682</v>
+        <v>0.0005236427241408774</v>
       </c>
       <c r="D201" t="n">
-        <v>0.3471284107917258</v>
+        <v>0.4254095787655431</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>Portugal_16</t>
+          <t>Denmark_6</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0.3242506811989101</v>
+        <v>0.09940357852882703</v>
       </c>
       <c r="C202" t="n">
-        <v>0.009248756622017476</v>
+        <v>0.0005691725985072116</v>
       </c>
       <c r="D202" t="n">
-        <v>0.4371816792232822</v>
+        <v>0.3758000775832808</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>Serbia_18</t>
+          <t>Germany_7</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0.2043596730245232</v>
+        <v>0.0934393638170974</v>
       </c>
       <c r="C203" t="n">
-        <v>0.004726260884844088</v>
+        <v>0.0002687716311570341</v>
       </c>
       <c r="D203" t="n">
-        <v>0.3912082089875006</v>
+        <v>0.3795609713543221</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>Switzerland_15</t>
+          <t>New Zealand_7</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0.1525885558583106</v>
+        <v>0.03777335984095427</v>
       </c>
       <c r="C204" t="n">
-        <v>8.767781101370722e-05</v>
+        <v>4.091805863011548e-05</v>
       </c>
       <c r="D204" t="n">
-        <v>0.342307182864063</v>
+        <v>0.3625365454332826</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>Turkey_14</t>
+          <t>New Zealand_8</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0.2098092643051771</v>
+        <v>0.07753479125248508</v>
       </c>
       <c r="C205" t="n">
-        <v>0.01062836746666047</v>
+        <v>0.0002301079151733611</v>
       </c>
       <c r="D205" t="n">
-        <v>0.4073738374580584</v>
+        <v>0.370157433775724</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>United Kingdom_8</t>
+          <t>New Zealand_10</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0.1307901907356948</v>
+        <v>0.2027833001988071</v>
       </c>
       <c r="C206" t="n">
-        <v>0.00145671101871032</v>
+        <v>0.0007932893760752285</v>
       </c>
       <c r="D206" t="n">
-        <v>0.3597973308936137</v>
+        <v>0.4232186281452913</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>United Kingdom_13</t>
+          <t>New Zealand_14</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0.2288828337874659</v>
+        <v>0.1351888667992047</v>
       </c>
       <c r="C207" t="n">
-        <v>0.0132889192035092</v>
+        <v>0.0006358774008329873</v>
       </c>
       <c r="D207" t="n">
-        <v>0.4107686194368756</v>
+        <v>0.4068066846446076</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>United Kingdom_17</t>
+          <t>United Kingdom_10</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0.3215258855585831</v>
+        <v>0.4512922465208747</v>
       </c>
       <c r="C208" t="n">
-        <v>0.003010089651692609</v>
+        <v>0.00608763266599582</v>
       </c>
       <c r="D208" t="n">
-        <v>0.4371816792232822</v>
+        <v>0.501576502328855</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>United Kingdom_18</t>
+          <t>United States_6</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0.114441416893733</v>
+        <v>0.1968190854870775</v>
       </c>
       <c r="C209" t="n">
-        <v>0.0009614352452541958</v>
+        <v>0.0009792410445202231</v>
       </c>
       <c r="D209" t="n">
-        <v>0.3429024997038266</v>
+        <v>0.4228556619118906</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>United States_17</t>
+          <t>United States_9</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0.09809264305177111</v>
+        <v>0.242544731610338</v>
       </c>
       <c r="C210" t="n">
-        <v>0.0001207309594173511</v>
+        <v>0.0006901147705705694</v>
       </c>
       <c r="D210" t="n">
-        <v>0.3502112563582598</v>
+        <v>0.4313645684945446</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>Austria_16</t>
+          <t>Australia_7</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0.2343324250681199</v>
+        <v>0.08349900596421471</v>
       </c>
       <c r="C211" t="n">
-        <v>0.001100540732596136</v>
+        <v>0.0004198525289872374</v>
       </c>
       <c r="D211" t="n">
-        <v>0.395128130921243</v>
+        <v>0.3775265710484414</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>Georgia_18</t>
+          <t>Germany_10</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0.01362397820163488</v>
+        <v>0.1371769383697813</v>
       </c>
       <c r="C212" t="n">
-        <v>1.490802463657707e-06</v>
+        <v>0.0001500158038338846</v>
       </c>
       <c r="D212" t="n">
-        <v>0.2982888613157342</v>
+        <v>0.408153726646742</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>Greece_16</t>
+          <t>Germany_11</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0.1389645776566757</v>
+        <v>0.01789264413518887</v>
       </c>
       <c r="C213" t="n">
-        <v>0.001235011244148651</v>
+        <v>9.661287018280231e-06</v>
       </c>
       <c r="D213" t="n">
-        <v>0.3584889769630914</v>
+        <v>0.3524300942024763</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>Portugal_15</t>
+          <t>Germany_12</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>0.1961852861035422</v>
+        <v>0.04174950298210735</v>
       </c>
       <c r="C214" t="n">
-        <v>0.02101666964347601</v>
+        <v>1.518795489453643e-05</v>
       </c>
       <c r="D214" t="n">
-        <v>0.398321085514546</v>
+        <v>0.3690491779859764</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>Portugal_19</t>
+          <t>Iceland_7</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>0.06811989100817438</v>
+        <v>0.06958250497017891</v>
       </c>
       <c r="C215" t="n">
-        <v>2.006524506256997e-05</v>
+        <v>0.0003534965990456909</v>
       </c>
       <c r="D215" t="n">
-        <v>0.3195606763852517</v>
+        <v>0.3752280835534736</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>Austria_17</t>
+          <t>Iceland_9</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>0.1280653950953679</v>
+        <v>0.07157057654075547</v>
       </c>
       <c r="C216" t="n">
-        <v>4.036534110403588e-05</v>
+        <v>4.032136699363188e-05</v>
       </c>
       <c r="D216" t="n">
-        <v>0.3364657633612633</v>
+        <v>0.376086729053596</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>Austria_18</t>
+          <t>Iceland_15</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>0.114441416893733</v>
+        <v>0.3578528827037773</v>
       </c>
       <c r="C217" t="n">
-        <v>1.448859212228752e-05</v>
+        <v>0.0005599922196487918</v>
       </c>
       <c r="D217" t="n">
-        <v>0.3324939921242838</v>
+        <v>0.4523391759534536</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>Austria_19</t>
+          <t>Mexico_8</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>0.04632152588555858</v>
+        <v>0.03578528827037773</v>
       </c>
       <c r="C218" t="n">
-        <v>0.0003075810282873833</v>
+        <v>4.907051515670364e-05</v>
       </c>
       <c r="D218" t="n">
-        <v>0.09637372991418167</v>
+        <v>0.3625365454332826</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>Belgium_19</t>
+          <t>Mexico_11</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>0.05177111716621254</v>
+        <v>0.09542743538767395</v>
       </c>
       <c r="C219" t="n">
-        <v>0.0007315784304080087</v>
+        <v>0.0001611690083150428</v>
       </c>
       <c r="D219" t="n">
-        <v>0.1046902446783496</v>
+        <v>0.3810275902544547</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>Belgium_20</t>
+          <t>Mexico_12</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0.06539509536784741</v>
+        <v>0.3300198807157057</v>
       </c>
       <c r="C220" t="n">
-        <v>0.002150019030990569</v>
+        <v>0.008294828542512355</v>
       </c>
       <c r="D220" t="n">
-        <v>0.107416553133515</v>
+        <v>0.4722698293000617</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>Estonia_20</t>
+          <t>New Zealand_9</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>0.04904632152588555</v>
+        <v>0.2326043737574552</v>
       </c>
       <c r="C221" t="n">
-        <v>0.000332529444407604</v>
+        <v>0.001102065832761194</v>
       </c>
       <c r="D221" t="n">
-        <v>0.1046902446783496</v>
+        <v>0.4294858029523209</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>Finland_20</t>
+          <t>New Zealand_16</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>0.04904632152588555</v>
+        <v>0.4532803180914513</v>
       </c>
       <c r="C222" t="n">
-        <v>0.0007496259171752488</v>
+        <v>0.004694639023159105</v>
       </c>
       <c r="D222" t="n">
-        <v>0.09682618874006985</v>
+        <v>0.5025990843927262</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>France_20</t>
+          <t>Sweden_14</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>0.0326975476839237</v>
+        <v>0.1252485089463221</v>
       </c>
       <c r="C223" t="n">
-        <v>5.176704426400284e-05</v>
+        <v>0.0003505223193098799</v>
       </c>
       <c r="D223" t="n">
-        <v>0.09207133125729856</v>
+        <v>0.3831000013902598</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>Germany_20</t>
+          <t>United Kingdom_9</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0.04904632152588555</v>
+        <v>0.2485089463220676</v>
       </c>
       <c r="C224" t="n">
-        <v>0.0004937075066687817</v>
+        <v>0.00333678997578866</v>
       </c>
       <c r="D224" t="n">
-        <v>0.1046902446783496</v>
+        <v>0.4313645684945446</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>Germany_21</t>
+          <t>United Kingdom_14</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0.06267029972752043</v>
+        <v>0.3658051689860835</v>
       </c>
       <c r="C225" t="n">
-        <v>0.00268649877413201</v>
+        <v>0.001012800924398453</v>
       </c>
       <c r="D225" t="n">
-        <v>0.1085472536928151</v>
+        <v>0.4540052502663576</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>Hungary_20</t>
+          <t>United States_10</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>0.01362397820163488</v>
+        <v>0.07157057654075547</v>
       </c>
       <c r="C226" t="n">
-        <v>3.554455868590041e-05</v>
+        <v>9.992323799018803e-05</v>
       </c>
       <c r="D226" t="n">
-        <v>0.08316120242594709</v>
+        <v>0.3992305277645866</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>Italy_20</t>
+          <t>United States_11</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>0.05177111716621254</v>
+        <v>0.2922465208747514</v>
       </c>
       <c r="C227" t="n">
-        <v>0.0005644132811709847</v>
+        <v>0.0006330949473188812</v>
       </c>
       <c r="D227" t="n">
-        <v>0.1052243785797698</v>
+        <v>0.4410104667166944</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>Netherlands_20</t>
+          <t>Australia_8</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>0.03542234332425068</v>
+        <v>0.07753479125248508</v>
       </c>
       <c r="C228" t="n">
-        <v>1.465003412693643e-05</v>
+        <v>0.0001257287133190568</v>
       </c>
       <c r="D228" t="n">
-        <v>0.0946054045946554</v>
+        <v>0.371272365805169</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>Netherlands_21</t>
+          <t>Denmark_10</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>0.05722070844686648</v>
+        <v>0.2922465208747514</v>
       </c>
       <c r="C229" t="n">
-        <v>0.001066808138421976</v>
+        <v>0.0004935973282381589</v>
       </c>
       <c r="D229" t="n">
-        <v>0.1057639907776148</v>
+        <v>0.4398302424525106</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>Slovakia_20</t>
+          <t>France_8</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>0.03814713896457766</v>
+        <v>0.31610337972167</v>
       </c>
       <c r="C230" t="n">
-        <v>7.121628675563602e-05</v>
+        <v>0.00198364148040792</v>
       </c>
       <c r="D230" t="n">
-        <v>0.09504137420108238</v>
+        <v>0.4669031266943792</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>Spain_20</t>
+          <t>Germany_6</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>0.05449591280653951</v>
+        <v>0.02982107355864811</v>
       </c>
       <c r="C231" t="n">
-        <v>0.0005130969257345195</v>
+        <v>7.474061192688619e-06</v>
       </c>
       <c r="D231" t="n">
-        <v>0.1057639907776148</v>
+        <v>0.3578009446946767</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>Sweden_20</t>
+          <t>Israel_7</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>0.01634877384196185</v>
+        <v>0.1928429423459244</v>
       </c>
       <c r="C232" t="n">
-        <v>1.967875733900659e-05</v>
+        <v>0.003559507780210852</v>
       </c>
       <c r="D232" t="n">
-        <v>0.07753375263772511</v>
+        <v>0.4214100015292858</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>Switzerland_20</t>
+          <t>Israel_8</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>0.04359673024523161</v>
+        <v>0.1590457256461232</v>
       </c>
       <c r="C233" t="n">
-        <v>0.000290259212340903</v>
+        <v>0.0003568285247781942</v>
       </c>
       <c r="D233" t="n">
-        <v>0.09592548000760408</v>
+        <v>0.4150250015061148</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>Austria_20</t>
+          <t>Italy_10</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>0.04087193460490463</v>
+        <v>0.3598409542743539</v>
       </c>
       <c r="C234" t="n">
-        <v>0.0001207144135065811</v>
+        <v>0.004476006427483214</v>
       </c>
       <c r="D234" t="n">
-        <v>0.09332116833318949</v>
+        <v>0.4805552649018172</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>Norway_19</t>
+          <t>Japan_18</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>0.01362397820163488</v>
+        <v>0.2723658051689861</v>
       </c>
       <c r="C235" t="n">
-        <v>3.722398415747234e-06</v>
+        <v>0.0006043986171804041</v>
       </c>
       <c r="D235" t="n">
-        <v>0.07724336405106697</v>
+        <v>0.4378771774327392</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>Azerbaijan_17</t>
+          <t>Mexico_13</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>0.002724795640326975</v>
+        <v>0.220675944333996</v>
       </c>
       <c r="C236" t="n">
-        <v>0</v>
+        <v>0.002440413283415016</v>
       </c>
       <c r="D236" t="n">
-        <v>0.002724795640326975</v>
+        <v>0.4261449453666935</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>Georgia_16</t>
+          <t>Norway_7</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>0.002724795640326975</v>
+        <v>0.2803180914512922</v>
       </c>
       <c r="C237" t="n">
-        <v>0</v>
+        <v>0.001041459063261409</v>
       </c>
       <c r="D237" t="n">
-        <v>0.002724795640326975</v>
+        <v>0.4374886440011219</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>Belgium_6</t>
+          <t>United Kingdom_7</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>0.01907356948228883</v>
+        <v>0.4095427435387674</v>
       </c>
       <c r="C238" t="n">
-        <v>6.446649571205994e-06</v>
+        <v>0.003195845437988361</v>
       </c>
       <c r="D238" t="n">
-        <v>0.3010212783659547</v>
+        <v>0.4910853603478729</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>Norway_6</t>
+          <t>United Kingdom_8</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>0.06267029972752043</v>
+        <v>0.3658051689860835</v>
       </c>
       <c r="C239" t="n">
-        <v>0.001416236117813593</v>
+        <v>0.003130369992651823</v>
       </c>
       <c r="D239" t="n">
-        <v>0.3353213219892862</v>
+        <v>0.4800873435143763</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>France_13</t>
+          <t>United States_13</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>0.07901907356948229</v>
+        <v>0.3220675944333996</v>
       </c>
       <c r="C240" t="n">
-        <v>0.0001101818049560021</v>
+        <v>0.002485707400468822</v>
       </c>
       <c r="D240" t="n">
-        <v>0.3447009393875879</v>
+        <v>0.4474135224947953</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>Netherlands_9</t>
+          <t>United States_14</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>0.02724795640326975</v>
+        <v>0.1411530815109344</v>
       </c>
       <c r="C241" t="n">
-        <v>0.002129372262548533</v>
+        <v>0.0006663237873756138</v>
       </c>
       <c r="D241" t="n">
-        <v>0.2987408141359095</v>
+        <v>0.4119045127729861</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>Netherlands_10</t>
+          <t>Australia_9</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>0.03814713896457766</v>
+        <v>0.001988071570576541</v>
       </c>
       <c r="C242" t="n">
-        <v>5.849761916373681e-05</v>
+        <v>0</v>
       </c>
       <c r="D242" t="n">
-        <v>0.3226987517671036</v>
+        <v>0.272553732332374</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>Turkey_12</t>
+          <t>Iceland_6</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>0.1362397820163488</v>
+        <v>0.07157057654075547</v>
       </c>
       <c r="C243" t="n">
-        <v>0.002337929624817003</v>
+        <v>0.004029444513759349</v>
       </c>
       <c r="D243" t="n">
-        <v>0.3706183032513163</v>
+        <v>0.3758000775832808</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
         <is>
-          <t>Belgium_8</t>
+          <t>Australia_10</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>0.01907356948228883</v>
+        <v>0.09542743538767395</v>
       </c>
       <c r="C244" t="n">
-        <v>4.116853597594249e-06</v>
+        <v>0.0001045286331985995</v>
       </c>
       <c r="D244" t="n">
-        <v>0.3038042177653317</v>
+        <v>0.3795609713543221</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
         <is>
-          <t>France_7</t>
+          <t>Finland_14</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>0.01362397820163488</v>
+        <v>0.03976143141153081</v>
       </c>
       <c r="C245" t="n">
-        <v>7.546115471529839e-05</v>
+        <v>5.010615162330152e-05</v>
       </c>
       <c r="D245" t="n">
-        <v>0.2857520830865222</v>
+        <v>0.3638743186636638</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
         <is>
-          <t>Netherlands_7</t>
+          <t>France_11</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>0.02452316076294278</v>
+        <v>0.3777335984095427</v>
       </c>
       <c r="C246" t="n">
-        <v>0.000135611548965051</v>
+        <v>0.0008632980661310674</v>
       </c>
       <c r="D246" t="n">
-        <v>0.3005624044660065</v>
+        <v>0.457799166006745</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
         <is>
-          <t>United States_11</t>
+          <t>France_13</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>0.03814713896457766</v>
+        <v>0.2882703777335984</v>
       </c>
       <c r="C247" t="n">
-        <v>4.087534246097473e-05</v>
+        <v>0.001874250859016876</v>
       </c>
       <c r="D247" t="n">
-        <v>0.3253612827222777</v>
+        <v>0.4616570241472513</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
         <is>
-          <t>Denmark_11</t>
+          <t>Greece_13</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>0.1607629427792915</v>
+        <v>0.4453280318091451</v>
       </c>
       <c r="C248" t="n">
-        <v>0.00400980574902201</v>
+        <v>0.006099673499959163</v>
       </c>
       <c r="D248" t="n">
-        <v>0.3828523054945637</v>
+        <v>0.4829086207534421</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
         <is>
-          <t>Italy_11</t>
+          <t>Ireland_13</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>0.02997275204359673</v>
+        <v>0.3300198807157057</v>
       </c>
       <c r="C249" t="n">
-        <v>3.269229987451092e-06</v>
+        <v>0.0009653722450119309</v>
       </c>
       <c r="D249" t="n">
-        <v>0.3253612827222777</v>
+        <v>0.4474135224947953</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
         <is>
-          <t>Italy_18</t>
+          <t>Portugal_12</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>0.02452316076294278</v>
+        <v>0.4174950298210735</v>
       </c>
       <c r="C250" t="n">
-        <v>1.115783694792049e-05</v>
+        <v>0.004009770196875088</v>
       </c>
       <c r="D250" t="n">
-        <v>0.3090422215199064</v>
+        <v>0.4930497017892644</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
         <is>
-          <t>United Kingdom_14</t>
+          <t>United Kingdom_6</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>0.106267029972752</v>
+        <v>0.2564612326043738</v>
       </c>
       <c r="C251" t="n">
-        <v>0.004155971353686536</v>
+        <v>0.003032436723809044</v>
       </c>
       <c r="D251" t="n">
-        <v>0.3552593465400005</v>
+        <v>0.4359413808923646</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
         <is>
-          <t>Luxembourg_11</t>
+          <t>Australia_11</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>0.04359673024523161</v>
+        <v>0.1431411530815109</v>
       </c>
       <c r="C252" t="n">
-        <v>1.39657854374032e-05</v>
+        <v>0.004251271190546761</v>
       </c>
       <c r="D252" t="n">
-        <v>0.3376180433727745</v>
+        <v>0.4108747514910536</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
         <is>
-          <t>Luxembourg_16</t>
+          <t>Denmark_12</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>0.04904632152588555</v>
+        <v>0.4115308151093439</v>
       </c>
       <c r="C253" t="n">
-        <v>5.285632120646807e-05</v>
+        <v>0.001154339503225969</v>
       </c>
       <c r="D253" t="n">
-        <v>0.3119761666609182</v>
+        <v>0.4669031266943792</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
         <is>
-          <t>Cyprus_16</t>
+          <t>Denmark_13</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>0.07084468664850135</v>
+        <v>0.2962226640159045</v>
       </c>
       <c r="C254" t="n">
-        <v>1.359526207816849e-05</v>
+        <v>0.000428788784178184</v>
       </c>
       <c r="D254" t="n">
-        <v>0.3429024997038266</v>
+        <v>0.4402229480261289</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
         <is>
-          <t>Denmark_18</t>
+          <t>Mexico_6</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>0.03814713896457766</v>
+        <v>0.001988071570576541</v>
       </c>
       <c r="C255" t="n">
-        <v>2.545261980859956e-06</v>
+        <v>0</v>
       </c>
       <c r="D255" t="n">
-        <v>0.3124705821389862</v>
+        <v>0.290541957448005</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
         <is>
-          <t>Finland_18</t>
+          <t>Netherlands_17</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>0.1226158038147139</v>
+        <v>0.4532803180914513</v>
       </c>
       <c r="C256" t="n">
-        <v>4.245201194118549e-05</v>
+        <v>0.00474514892813699</v>
       </c>
       <c r="D256" t="n">
-        <v>0.3353213219892862</v>
+        <v>0.4833820605777102</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
         <is>
-          <t>Ireland_14</t>
+          <t>Norway_13</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>0.106267029972752</v>
+        <v>0.4214711729622266</v>
       </c>
       <c r="C257" t="n">
-        <v>0.0001631739347269931</v>
+        <v>0.001538631945196715</v>
       </c>
       <c r="D257" t="n">
-        <v>0.3527172403035783</v>
+        <v>0.467789090881655</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
         <is>
-          <t>Ireland_20</t>
+          <t>Slovakia_19</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>0.0108991825613079</v>
+        <v>0.4214711729622266</v>
       </c>
       <c r="C258" t="n">
-        <v>4.019867835921796e-05</v>
+        <v>0.002498234713149914</v>
       </c>
       <c r="D258" t="n">
-        <v>0.09125654071519856</v>
+        <v>0.4736308374536642</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
         <is>
-          <t>Norway_20</t>
+          <t>Switzerland_6</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>0.0326975476839237</v>
+        <v>0.3081510934393638</v>
       </c>
       <c r="C259" t="n">
-        <v>5.286923157975865e-05</v>
+        <v>0.0007858513524712114</v>
       </c>
       <c r="D259" t="n">
-        <v>0.1010979323609553</v>
+        <v>0.4429916458124568</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
         <is>
-          <t>Sweden_19</t>
+          <t>United States_12</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>0.008174386920980926</v>
+        <v>0.1570576540755467</v>
       </c>
       <c r="C260" t="n">
-        <v>0</v>
+        <v>0.0001846720088645336</v>
       </c>
       <c r="D260" t="n">
-        <v>0.07638510445049955</v>
+        <v>0.4143274804951802</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
         <is>
-          <t>Denmark_20</t>
+          <t>United States_19</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>0.01634877384196185</v>
+        <v>0.2803180914512922</v>
       </c>
       <c r="C261" t="n">
-        <v>1.340063429669004e-05</v>
+        <v>0.0008865516654141075</v>
       </c>
       <c r="D261" t="n">
-        <v>0.07610324059643866</v>
+        <v>0.4371007994585677</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
         <is>
-          <t>Greece_20</t>
+          <t>Australia_12</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>0.0108991825613079</v>
+        <v>0.06163021868787276</v>
       </c>
       <c r="C262" t="n">
-        <v>8.160018171540884e-05</v>
+        <v>0.0001729174058475766</v>
       </c>
       <c r="D262" t="n">
-        <v>0.1001163990370625</v>
+        <v>0.3906891456333315</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
         <is>
-          <t>Slovenia_20</t>
+          <t>Mexico_9</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>0.01634877384196185</v>
+        <v>0.06958250497017891</v>
       </c>
       <c r="C263" t="n">
-        <v>2.323860729137266e-05</v>
+        <v>0.0003057403658149323</v>
       </c>
       <c r="D263" t="n">
-        <v>0.08738973814252067</v>
+        <v>0.3707140614956875</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
         <is>
-          <t>Sweden_21</t>
+          <t>Belgium_7</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>0.01634877384196185</v>
+        <v>0.3757455268389662</v>
       </c>
       <c r="C264" t="n">
-        <v>1.310981895827618e-05</v>
+        <v>0.0006114989118694955</v>
       </c>
       <c r="D264" t="n">
-        <v>0.07812112955164727</v>
+        <v>0.4582246299156733</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
         <is>
-          <t>Bolivia_18</t>
+          <t>Belgium_8</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>0.0217983651226158</v>
+        <v>0.2345924453280318</v>
       </c>
       <c r="C265" t="n">
-        <v>0.000131398663367622</v>
+        <v>0.0001761410861191068</v>
       </c>
       <c r="D265" t="n">
-        <v>0.09207133125729856</v>
+        <v>0.4283663786179535</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
         <is>
-          <t>Brazil_15</t>
+          <t>Belgium_11</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>0.01634877384196185</v>
+        <v>0.3638170974155069</v>
       </c>
       <c r="C266" t="n">
-        <v>2.634413194583218e-05</v>
+        <v>0.001140277866154214</v>
       </c>
       <c r="D266" t="n">
-        <v>0.09125654071519856</v>
+        <v>0.4552628825385636</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
         <is>
-          <t>Brazil_16</t>
+          <t>Belgium_12</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>0.0326975476839237</v>
+        <v>0.4174950298210735</v>
       </c>
       <c r="C267" t="n">
-        <v>0.0004303401149731045</v>
+        <v>0.002167038774485968</v>
       </c>
       <c r="D267" t="n">
-        <v>0.09867932153892287</v>
+        <v>0.4896223453716628</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
         <is>
-          <t>Brazil_17</t>
+          <t>Belgium_13</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>0.04359673024523161</v>
+        <v>0.4274353876739562</v>
       </c>
       <c r="C268" t="n">
-        <v>0.001889066211384851</v>
+        <v>0.001314092712473167</v>
       </c>
       <c r="D268" t="n">
-        <v>0.1145776566757493</v>
+        <v>0.4704672726996798</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
         <is>
-          <t>Brazil_18</t>
+          <t>Belgium_15</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>0.01634877384196185</v>
+        <v>0.3658051689860835</v>
       </c>
       <c r="C269" t="n">
-        <v>7.145978733107543e-05</v>
+        <v>0.0005214574855164362</v>
       </c>
       <c r="D269" t="n">
-        <v>0.09207133125729856</v>
+        <v>0.4540052502663576</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
         <is>
-          <t>Brazil_19</t>
+          <t>Belgium_17</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>0.05722070844686648</v>
+        <v>0.3996023856858846</v>
       </c>
       <c r="C270" t="n">
-        <v>0.005883642968418884</v>
+        <v>0.002292293685732789</v>
       </c>
       <c r="D270" t="n">
-        <v>0.1185286103542234</v>
+        <v>0.4691243594569595</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="inlineStr">
         <is>
-          <t>Bulgaria_19</t>
+          <t>Bulgaria_18</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>0.0217983651226158</v>
+        <v>0.1829025844930417</v>
       </c>
       <c r="C271" t="n">
-        <v>0.0008126675465831325</v>
+        <v>8.917942947556849e-06</v>
       </c>
       <c r="D271" t="n">
-        <v>0.104161506068863</v>
+        <v>0.4167791223916014</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
         <is>
-          <t>Ecuador_20</t>
+          <t>Canada_7</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>0.0326975476839237</v>
+        <v>0.1153081510934394</v>
       </c>
       <c r="C272" t="n">
-        <v>0.000591831456718743</v>
+        <v>2.786104046271907e-05</v>
       </c>
       <c r="D272" t="n">
-        <v>0.107416553133515</v>
+        <v>0.3825055871134712</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
         <is>
-          <t>Bolivia_19</t>
+          <t>Canada_8</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>0.002724795640326975</v>
+        <v>0.03379721669980119</v>
       </c>
       <c r="C273" t="n">
-        <v>0</v>
+        <v>5.954150861135488e-07</v>
       </c>
       <c r="D273" t="n">
-        <v>0.07932299308321106</v>
+        <v>0.3612085727393878</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
         <is>
-          <t>Bosnia-Herzegovina_19</t>
+          <t>Canada_10</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>0.0217983651226158</v>
+        <v>0.2007952286282306</v>
       </c>
       <c r="C274" t="n">
-        <v>0.0008653052342303369</v>
+        <v>3.747931959590557e-05</v>
       </c>
       <c r="D274" t="n">
-        <v>0.09682618874006985</v>
+        <v>0.3944397614314115</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
         <is>
-          <t>Montenegro_20</t>
+          <t>Canada_11</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>0.0108991825613079</v>
+        <v>0.08747514910536779</v>
       </c>
       <c r="C275" t="n">
-        <v>0.001307676417877214</v>
+        <v>4.24370726330681e-06</v>
       </c>
       <c r="D275" t="n">
-        <v>0.08151770040171889</v>
+        <v>0.3763738181597439</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
         <is>
-          <t>Poland_20</t>
+          <t>Canada_12</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>0.01634877384196185</v>
+        <v>0.03180914512922465</v>
       </c>
       <c r="C276" t="n">
-        <v>0.0006648968551473611</v>
+        <v>3.636775803130344e-07</v>
       </c>
       <c r="D276" t="n">
-        <v>0.1006047717152921</v>
+        <v>0.3620041863357301</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
         <is>
-          <t>Turkey_20</t>
+          <t>Canada_14</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>0.0326975476839237</v>
+        <v>0.04572564612326043</v>
       </c>
       <c r="C277" t="n">
-        <v>0.00130984403734778</v>
+        <v>1.528318943730475e-05</v>
       </c>
       <c r="D277" t="n">
-        <v>0.107978943464057</v>
+        <v>0.365222001325381</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
         <is>
-          <t>Bosnia-Herzegovina_20</t>
+          <t>Cyprus_17</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>0.002724795640326975</v>
+        <v>0.3717693836978131</v>
       </c>
       <c r="C278" t="n">
-        <v>0</v>
+        <v>0.0003137827653075291</v>
       </c>
       <c r="D278" t="n">
-        <v>0.06083769381013238</v>
+        <v>0.4556836430584699</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
         <is>
-          <t>Brazil_14</t>
+          <t>Denmark_11</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>0.002724795640326975</v>
+        <v>0.3856858846918489</v>
       </c>
       <c r="C279" t="n">
-        <v>0</v>
+        <v>0.0008919199102701954</v>
       </c>
       <c r="D279" t="n">
-        <v>0.06920798054239892</v>
+        <v>0.4590779346268756</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
         <is>
-          <t>Ecuador_18</t>
+          <t>Denmark_14</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>0.02997275204359673</v>
+        <v>0.3836978131212723</v>
       </c>
       <c r="C280" t="n">
-        <v>0.001421844495077272</v>
+        <v>0.0005331783944590375</v>
       </c>
       <c r="D280" t="n">
-        <v>0.09728291604544755</v>
+        <v>0.457799166006745</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
         <is>
-          <t>Uruguay_19</t>
+          <t>Denmark_15</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>0.04087193460490463</v>
+        <v>0.3777335984095427</v>
       </c>
       <c r="C281" t="n">
-        <v>0.002576697162439578</v>
+        <v>0.0004233410659979678</v>
       </c>
       <c r="D281" t="n">
-        <v>0.1171816943274709</v>
+        <v>0.4565275016567263</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
         <is>
-          <t>Costa Rica_15</t>
+          <t>Finland_7</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>0.01634877384196185</v>
+        <v>0.1530815109343936</v>
       </c>
       <c r="C282" t="n">
-        <v>0.0001397251525693812</v>
+        <v>0.001056944266975679</v>
       </c>
       <c r="D282" t="n">
-        <v>0.08417950286381583</v>
+        <v>0.4136323001587788</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
         <is>
-          <t>Costa Rica_18</t>
+          <t>Finland_8</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>0.0326975476839237</v>
+        <v>0.1093439363817097</v>
       </c>
       <c r="C283" t="n">
-        <v>0.0007921460873323969</v>
+        <v>0.0002492887563983246</v>
       </c>
       <c r="D283" t="n">
-        <v>0.09820942000778514</v>
+        <v>0.4051353342557637</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
         <is>
-          <t>Peru_18</t>
+          <t>Finland_10</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>0.02724795640326975</v>
+        <v>0.09741550695825049</v>
       </c>
       <c r="C284" t="n">
-        <v>0.0005584840644985612</v>
+        <v>0.004063470511555854</v>
       </c>
       <c r="D284" t="n">
-        <v>0.09728291604544755</v>
+        <v>0.3816174162455607</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
         <is>
-          <t>Peru_20</t>
+          <t>Finland_12</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>0.02997275204359673</v>
+        <v>0.4194831013916501</v>
       </c>
       <c r="C285" t="n">
-        <v>0.00146553354084718</v>
+        <v>0.001342757266457348</v>
       </c>
       <c r="D285" t="n">
-        <v>0.09548138056312444</v>
+        <v>0.467789090881655</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
         <is>
-          <t>Croatia_21</t>
+          <t>Finland_13</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>0.0217983651226158</v>
+        <v>0.06163021868787276</v>
       </c>
       <c r="C286" t="n">
-        <v>0.001286292286129734</v>
+        <v>0.0001991419575026554</v>
       </c>
       <c r="D286" t="n">
-        <v>0.1057639907776148</v>
+        <v>0.3740893033302461</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
         <is>
-          <t>Chile_20</t>
+          <t>Finland_16</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>0.005449591280653951</v>
+        <v>0.3399602385685884</v>
       </c>
       <c r="C287" t="n">
-        <v>1.392336886413018e-05</v>
+        <v>0.0005467750196232686</v>
       </c>
       <c r="D287" t="n">
-        <v>0.08184118333982095</v>
+        <v>0.447007889201509</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
         <is>
-          <t>Dominican Republic_16</t>
+          <t>Finland_19</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>0.0217983651226158</v>
+        <v>0.3598409542743539</v>
       </c>
       <c r="C288" t="n">
-        <v>0.001338775570349802</v>
+        <v>0.000546613231078485</v>
       </c>
       <c r="D288" t="n">
-        <v>0.09374535546197671</v>
+        <v>0.4519245662596374</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
         <is>
-          <t>Hungary_19</t>
+          <t>France_6</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>0.005449591280653951</v>
+        <v>0.2445328031809145</v>
       </c>
       <c r="C289" t="n">
-        <v>0</v>
+        <v>0.005211351639113175</v>
       </c>
       <c r="D289" t="n">
-        <v>0.08316120242594709</v>
+        <v>0.4317422957874469</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
         <is>
-          <t>Brazil_20</t>
+          <t>France_9</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>0.002724795640326975</v>
+        <v>0.4115308151093439</v>
       </c>
       <c r="C290" t="n">
-        <v>0</v>
+        <v>0.002814329106396445</v>
       </c>
       <c r="D290" t="n">
-        <v>0.07871747405204152</v>
+        <v>0.489136608917921</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
         <is>
-          <t>Brazil_21</t>
+          <t>France_12</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>0.005449591280653951</v>
+        <v>0.3538767395626242</v>
       </c>
       <c r="C291" t="n">
-        <v>1.488959366298894e-06</v>
+        <v>0.000632808494031551</v>
       </c>
       <c r="D291" t="n">
-        <v>0.07236483579521009</v>
+        <v>0.4527545470975798</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
         <is>
-          <t>Bulgaria_15</t>
+          <t>Germany_16</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>0.005449591280653951</v>
+        <v>0.4254473161033797</v>
       </c>
       <c r="C292" t="n">
-        <v>2.977918732597787e-05</v>
+        <v>0.0009430780602010867</v>
       </c>
       <c r="D292" t="n">
-        <v>0.006130790190735694</v>
+        <v>0.467789090881655</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
         <is>
-          <t>Czech Republic_15</t>
+          <t>Iceland_12</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>0.005449591280653951</v>
+        <v>0.1093439363817097</v>
       </c>
       <c r="C293" t="n">
-        <v>2.977918732597787e-05</v>
+        <v>0.00020121007729649</v>
       </c>
       <c r="D293" t="n">
-        <v>0.006130790190735694</v>
+        <v>0.4038081095735171</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
         <is>
-          <t>Hungary_15</t>
+          <t>Iceland_18</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>0.002724795640326975</v>
+        <v>0.3518886679920477</v>
       </c>
       <c r="C294" t="n">
-        <v>0</v>
+        <v>0.000449840397530691</v>
       </c>
       <c r="D294" t="n">
-        <v>0.004087193460490463</v>
+        <v>0.4502737002641684</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
         <is>
-          <t>Canada_7</t>
+          <t>Ireland_7</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>0.002724795640326975</v>
+        <v>0.005964214711729622</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
       </c>
       <c r="D295" t="n">
-        <v>0.2921021293773338</v>
+        <v>0.3311280737335557</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
         <is>
-          <t>Georgia_19</t>
+          <t>Israel_12</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>0.07901907356948229</v>
+        <v>0.009940357852882702</v>
       </c>
       <c r="C296" t="n">
-        <v>0.004681020408966606</v>
+        <v>8.900390597831265e-08</v>
       </c>
       <c r="D296" t="n">
-        <v>0.3440993670675398</v>
+        <v>0.3519269820051852</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
         <is>
-          <t>Japan_18</t>
+          <t>Israel_13</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>0.03814713896457766</v>
+        <v>0.04373757455268389</v>
       </c>
       <c r="C297" t="n">
-        <v>9.406271352472916e-05</v>
+        <v>1.062135851258529e-06</v>
       </c>
       <c r="D297" t="n">
-        <v>0.3175023145405801</v>
+        <v>0.3916200967349201</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
         <is>
-          <t>Mexico_13</t>
+          <t>Israel_17</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>0.008174386920980926</v>
+        <v>0.2982107355864811</v>
       </c>
       <c r="C298" t="n">
-        <v>0</v>
+        <v>9.900654154269375e-05</v>
       </c>
       <c r="D298" t="n">
-        <v>0.2882586803065794</v>
+        <v>0.4394382368888274</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
         <is>
-          <t>Chile_18</t>
+          <t>Italy_12</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>0.002724795640326975</v>
+        <v>0.2743538767395626</v>
       </c>
       <c r="C299" t="n">
-        <v>0</v>
+        <v>0.0005252552637871147</v>
       </c>
       <c r="D299" t="n">
-        <v>0.07392106882306408</v>
+        <v>0.4347880968159298</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
         <is>
-          <t>Mexico_20</t>
+          <t>Luxembourg_11</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>0.0326975476839237</v>
+        <v>0.3141153081510934</v>
       </c>
       <c r="C300" t="n">
-        <v>0.002183785848773258</v>
+        <v>0.001048179601904907</v>
       </c>
       <c r="D300" t="n">
-        <v>0.106859990682046</v>
+        <v>0.4445894515683178</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
         <is>
-          <t>Costa Rica_20</t>
+          <t>Luxembourg_13</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>0.01907356948228883</v>
+        <v>0.3817097415506958</v>
       </c>
       <c r="C301" t="n">
-        <v>0.0002654251626688529</v>
+        <v>0.000613273188361944</v>
       </c>
       <c r="D301" t="n">
-        <v>0.1010979323609553</v>
+        <v>0.4590779346268756</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
         <is>
-          <t>Ireland_21</t>
+          <t>Luxembourg_14</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>0.02452316076294278</v>
+        <v>0.4194831013916501</v>
       </c>
       <c r="C302" t="n">
-        <v>0.0004457170060178791</v>
+        <v>0.0006608124124859387</v>
       </c>
       <c r="D302" t="n">
-        <v>0.1091215777864279</v>
+        <v>0.4660205120881516</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
         <is>
-          <t>Lithuania_21</t>
+          <t>Luxembourg_17</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>0.01634877384196185</v>
+        <v>0.3697813121272365</v>
       </c>
       <c r="C303" t="n">
-        <v>6.267120069635581e-05</v>
+        <v>0.0006079220260981753</v>
       </c>
       <c r="D303" t="n">
-        <v>0.09548138056312444</v>
+        <v>0.4548428983295797</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
         <is>
-          <t>New Zealand_19</t>
+          <t>Luxembourg_18</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>0.002724795640326975</v>
+        <v>0.3737574552683896</v>
       </c>
       <c r="C304" t="n">
-        <v>0</v>
+        <v>0.0005553076352861477</v>
       </c>
       <c r="D304" t="n">
-        <v>0.08522305041997884</v>
+        <v>0.4565275016567263</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
         <is>
-          <t>Croatia_20</t>
+          <t>Luxembourg_19</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>0.0217983651226158</v>
+        <v>0.3777335984095427</v>
       </c>
       <c r="C305" t="n">
-        <v>0.0002685623836554392</v>
+        <v>0.0006483290754668229</v>
       </c>
       <c r="D305" t="n">
-        <v>0.09374535546197671</v>
+        <v>0.4565275016567263</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
         <is>
-          <t>Dominican Republic_19</t>
+          <t>Mexico_19</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>0.01362397820163488</v>
+        <v>0.06163021868787276</v>
       </c>
       <c r="C306" t="n">
-        <v>1.713731438703127e-05</v>
+        <v>1.644877701805194e-05</v>
       </c>
       <c r="D306" t="n">
-        <v>0.08928129091616831</v>
+        <v>0.3928682882782983</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
         <is>
-          <t>Montenegro_18</t>
+          <t>Netherlands_9</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>0.005449591280653951</v>
+        <v>0.2544731610337972</v>
       </c>
       <c r="C307" t="n">
-        <v>0</v>
+        <v>0.001070437105577926</v>
       </c>
       <c r="D307" t="n">
-        <v>0.07782633283635802</v>
+        <v>0.4061364924129031</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
         <is>
-          <t>Slovenia_19</t>
+          <t>Netherlands_10</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>0.01634877384196185</v>
+        <v>0.2962226640159045</v>
       </c>
       <c r="C308" t="n">
-        <v>0.0009551967814451325</v>
+        <v>0.0004553796470455216</v>
       </c>
       <c r="D308" t="n">
-        <v>0.1026068567245516</v>
+        <v>0.4386563183178509</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
         <is>
-          <t>Panama_16</t>
+          <t>Netherlands_11</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>0.008174386920980926</v>
+        <v>0.4135188866799204</v>
       </c>
       <c r="C309" t="n">
-        <v>7.67039673547915e-06</v>
+        <v>0.0026500764911069</v>
       </c>
       <c r="D309" t="n">
-        <v>0.07136324637243903</v>
+        <v>0.4896223453716628</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
         <is>
-          <t>Costa Rica_16</t>
+          <t>Netherlands_13</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>0.002724795640326975</v>
+        <v>0.4373757455268389</v>
       </c>
       <c r="C310" t="n">
-        <v>0</v>
+        <v>0.001464586541076412</v>
       </c>
       <c r="D310" t="n">
-        <v>0.06829131854845985</v>
+        <v>0.4713668277144019</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="inlineStr">
         <is>
-          <t>Dominican Republic_17</t>
+          <t>Netherlands_15</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>0.01634877384196185</v>
+        <v>0.4035785288270377</v>
       </c>
       <c r="C311" t="n">
-        <v>7.498574287598379e-05</v>
+        <v>0.000832865294339575</v>
       </c>
       <c r="D311" t="n">
-        <v>0.08889645776566757</v>
+        <v>0.4625231724101918</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
         <is>
-          <t>Ecuador_19</t>
+          <t>Netherlands_18</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>0.008174386920980926</v>
+        <v>0.3717693836978131</v>
       </c>
       <c r="C312" t="n">
-        <v>3.480684232906505e-06</v>
+        <v>0.0008915768518521334</v>
       </c>
       <c r="D312" t="n">
-        <v>0.08593324250681199</v>
+        <v>0.4552628825385636</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
         <is>
-          <t>Slovakia_15</t>
+          <t>Netherlands_19</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>0.002724795640326975</v>
+        <v>0.3797216699801192</v>
       </c>
       <c r="C313" t="n">
-        <v>0</v>
+        <v>0.001000641473566624</v>
       </c>
       <c r="D313" t="n">
-        <v>0.004087193460490463</v>
+        <v>0.4569506040679003</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="inlineStr">
         <is>
-          <t>Czech Republic_20</t>
+          <t>New Zealand_18</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>0.008174386920980926</v>
+        <v>0.194831013916501</v>
       </c>
       <c r="C314" t="n">
-        <v>0</v>
+        <v>6.327847011697982e-05</v>
       </c>
       <c r="D314" t="n">
-        <v>0.08813665898134564</v>
+        <v>0.4167791223916014</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="inlineStr">
         <is>
-          <t>Denmark_9</t>
+          <t>Norway_9</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>0.07084468664850135</v>
+        <v>0.2166998011928429</v>
       </c>
       <c r="C315" t="n">
-        <v>0.0004829898330535496</v>
+        <v>0.000220400194849349</v>
       </c>
       <c r="D315" t="n">
-        <v>0.3459104163678953</v>
+        <v>0.3969804362232403</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="inlineStr">
         <is>
-          <t>Norway_9</t>
+          <t>Norway_11</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>0.02997275204359673</v>
+        <v>0.3956262425447316</v>
       </c>
       <c r="C316" t="n">
-        <v>0.002150723226340531</v>
+        <v>0.0009688396092695778</v>
       </c>
       <c r="D316" t="n">
-        <v>0.3109920147156156</v>
+        <v>0.4607941138217424</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="inlineStr">
         <is>
-          <t>Denmark_10</t>
+          <t>Norway_12</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>0.06811989100817438</v>
+        <v>0.3876739562624254</v>
       </c>
       <c r="C317" t="n">
-        <v>0.001046740787646246</v>
+        <v>0.0007343492430693856</v>
       </c>
       <c r="D317" t="n">
-        <v>0.3411227289441182</v>
+        <v>0.4590779346268756</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="inlineStr">
         <is>
-          <t>United Kingdom_12</t>
+          <t>Norway_14</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>0.005449591280653951</v>
+        <v>0.4075546719681908</v>
       </c>
       <c r="C318" t="n">
-        <v>0</v>
+        <v>0.001184227329713944</v>
       </c>
       <c r="D318" t="n">
-        <v>0.2608054726583337</v>
+        <v>0.4647028292076008</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="inlineStr">
         <is>
-          <t>Denmark_13</t>
+          <t>Norway_15</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>0.05994550408719346</v>
+        <v>0.3578528827037773</v>
       </c>
       <c r="C319" t="n">
-        <v>0.0001528911266587361</v>
+        <v>0.0004902612532105067</v>
       </c>
       <c r="D319" t="n">
-        <v>0.3376180433727745</v>
+        <v>0.4515107159242348</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="inlineStr">
         <is>
-          <t>Sweden_17</t>
+          <t>Norway_17</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>0.02724795640326975</v>
+        <v>0.4095427435387674</v>
       </c>
       <c r="C320" t="n">
-        <v>0.0005524511856469655</v>
+        <v>0.003363267171784961</v>
       </c>
       <c r="D320" t="n">
-        <v>0.3010212783659547</v>
+        <v>0.4633925768696094</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="inlineStr">
         <is>
-          <t>Finland_17</t>
+          <t>Portugal_17</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>0.01634877384196185</v>
+        <v>0.4254473161033797</v>
       </c>
       <c r="C321" t="n">
-        <v>5.473522947519215e-07</v>
+        <v>0.002680573399220269</v>
       </c>
       <c r="D321" t="n">
-        <v>0.2938434237402389</v>
+        <v>0.475916700568788</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="inlineStr">
         <is>
-          <t>Turkey_17</t>
+          <t>Portugal_18</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>0.002724795640326975</v>
+        <v>0.4194831013916501</v>
       </c>
       <c r="C322" t="n">
-        <v>0</v>
+        <v>0.002447467051736371</v>
       </c>
       <c r="D322" t="n">
-        <v>0.06739862157397018</v>
+        <v>0.473176297302557</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="inlineStr">
         <is>
-          <t>Estonia_18</t>
+          <t>South Africa_19</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>0.02452316076294278</v>
+        <v>0.05367793240556659</v>
       </c>
       <c r="C323" t="n">
-        <v>0.0002572406620483806</v>
+        <v>3.11904363234965e-06</v>
       </c>
       <c r="D323" t="n">
-        <v>0.3033368266610774</v>
+        <v>0.3928682882782983</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="inlineStr">
         <is>
-          <t>Luxembourg_7</t>
+          <t>Spain_12</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>0.005449591280653951</v>
+        <v>0.489065606361829</v>
       </c>
       <c r="C324" t="n">
-        <v>1.371692453570329e-05</v>
+        <v>0.005010075376809977</v>
       </c>
       <c r="D324" t="n">
-        <v>0.2597746209877474</v>
+        <v>0.511993459801936</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="inlineStr">
         <is>
-          <t>North Macedonia_17</t>
+          <t>Spain_14</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>0.01634877384196185</v>
+        <v>0.4711729622266401</v>
       </c>
       <c r="C325" t="n">
-        <v>0.004001445624920336</v>
+        <v>0.003191195702785818</v>
       </c>
       <c r="D325" t="n">
-        <v>0.2921021293773338</v>
+        <v>0.5051738747840824</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="inlineStr">
         <is>
-          <t>Finland_7</t>
+          <t>Spain_19</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>0.01362397820163488</v>
+        <v>0.4453280318091451</v>
       </c>
       <c r="C326" t="n">
-        <v>0.0001317882101120989</v>
+        <v>0.002994783151652585</v>
       </c>
       <c r="D326" t="n">
-        <v>0.2969411706772594</v>
+        <v>0.4985335710710459</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="inlineStr">
         <is>
-          <t>Switzerland_18</t>
+          <t>Sri Lanka_12</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>0.01362397820163488</v>
+        <v>0.1093439363817097</v>
       </c>
       <c r="C327" t="n">
-        <v>2.012107251755262e-07</v>
+        <v>0.001255838223827359</v>
       </c>
       <c r="D327" t="n">
-        <v>0.290809642079204</v>
+        <v>0.383995094851452</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="inlineStr">
         <is>
-          <t>Israel_7</t>
+          <t>Sweden_8</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>0.0217983651226158</v>
+        <v>0.1153081510934394</v>
       </c>
       <c r="C328" t="n">
-        <v>0.0006509570015515473</v>
+        <v>7.374405119091436e-05</v>
       </c>
       <c r="D328" t="n">
-        <v>0.2841050970168592</v>
+        <v>0.3807333604550304</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="inlineStr">
         <is>
-          <t>Israel_8</t>
+          <t>Sweden_9</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>0.01634877384196185</v>
+        <v>0.1391650099403578</v>
       </c>
       <c r="C329" t="n">
-        <v>8.975939191858349e-05</v>
+        <v>8.906865049415279e-05</v>
       </c>
       <c r="D329" t="n">
-        <v>0.2845150610818186</v>
+        <v>0.4101910996582899</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="inlineStr">
         <is>
-          <t>Italy_8</t>
+          <t>Sweden_17</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>0.01362397820163488</v>
+        <v>0.2544731610337972</v>
       </c>
       <c r="C330" t="n">
-        <v>2.148206606135724e-06</v>
+        <v>0.0004453764516803104</v>
       </c>
       <c r="D330" t="n">
-        <v>0.2987408141359095</v>
+        <v>0.4064713122747439</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="inlineStr">
         <is>
-          <t>Italy_10</t>
+          <t>Sweden_18</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>0.08991825613079019</v>
+        <v>0.3638170974155069</v>
       </c>
       <c r="C331" t="n">
-        <v>0.0009262458119771298</v>
+        <v>0.0009768254385306041</v>
       </c>
       <c r="D331" t="n">
-        <v>0.355900608898376</v>
+        <v>0.4531706817916033</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="inlineStr">
         <is>
-          <t>Greece_12</t>
+          <t>Switzerland_16</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>0.05722070844686648</v>
+        <v>0.3916500994035785</v>
       </c>
       <c r="C332" t="n">
-        <v>0.0003605786382644643</v>
+        <v>0.00179703253005875</v>
       </c>
       <c r="D332" t="n">
-        <v>0.3324939921242838</v>
+        <v>0.4829086207534421</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="inlineStr">
         <is>
-          <t>New Zealand_9</t>
+          <t>United Kingdom_17</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>0.01362397820163488</v>
+        <v>0.4254473161033797</v>
       </c>
       <c r="C333" t="n">
-        <v>0.004046196943254077</v>
+        <v>0.0008112467049695111</v>
       </c>
       <c r="D333" t="n">
-        <v>0.2903813510010314</v>
+        <v>0.4673456888997767</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="inlineStr">
         <is>
-          <t>Iceland_19</t>
+          <t>United States_7</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>0.04359673024523161</v>
+        <v>0.003976143141153081</v>
       </c>
       <c r="C334" t="n">
-        <v>0.004011270594569843</v>
+        <v>0</v>
       </c>
       <c r="D334" t="n">
-        <v>0.3169918606586821</v>
+        <v>0.335179946831587</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="inlineStr">
         <is>
-          <t>Ireland_13</t>
+          <t>Australia_14</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>0.05449591280653951</v>
+        <v>0.02783300198807157</v>
       </c>
       <c r="C335" t="n">
-        <v>4.438696837259556e-05</v>
+        <v>2.458689854512255e-05</v>
       </c>
       <c r="D335" t="n">
-        <v>0.3429024997038266</v>
+        <v>0.3450312818679248</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="inlineStr">
         <is>
-          <t>Turkey_19</t>
+          <t>Australia_15</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>0.04632152588555858</v>
+        <v>0.2664015904572564</v>
       </c>
       <c r="C336" t="n">
-        <v>1.589498880756312e-05</v>
+        <v>0.0002242181367663969</v>
       </c>
       <c r="D336" t="n">
-        <v>0.3253612827222777</v>
+        <v>0.4321206851790223</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="inlineStr">
         <is>
-          <t>Georgia_15</t>
+          <t>Austria_17</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>0.002724795640326975</v>
+        <v>0.3061630218687872</v>
       </c>
       <c r="C337" t="n">
-        <v>0</v>
+        <v>0.0002255124802711836</v>
       </c>
       <c r="D337" t="n">
-        <v>0.2618445382864546</v>
+        <v>0.4406163554863847</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="inlineStr">
         <is>
-          <t>Georgia_17</t>
+          <t>Cyprus_16</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>0.005449591280653951</v>
+        <v>0.2604373757455268</v>
       </c>
       <c r="C338" t="n">
-        <v>8.043801006429463e-06</v>
+        <v>5.812558018320683e-05</v>
       </c>
       <c r="D338" t="n">
-        <v>0.2650120125399197</v>
+        <v>0.4321206851790223</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="inlineStr">
         <is>
-          <t>Germany_10</t>
+          <t>Finland_11</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>0.002724795640326975</v>
+        <v>0.1252485089463221</v>
       </c>
       <c r="C339" t="n">
-        <v>0</v>
+        <v>0.0001395074792248551</v>
       </c>
       <c r="D339" t="n">
-        <v>0.234445823221998</v>
+        <v>0.4058022236948678</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="inlineStr">
         <is>
-          <t>United States_12</t>
+          <t>Finland_18</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>0.008174386920980926</v>
+        <v>0.3001988071570576</v>
       </c>
       <c r="C340" t="n">
-        <v>1.299149548776868e-06</v>
+        <v>0.000214394035593666</v>
       </c>
       <c r="D340" t="n">
-        <v>0.2780944109022571</v>
+        <v>0.4382664015904572</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="inlineStr">
         <is>
-          <t>Portugal_14</t>
+          <t>Germany_15</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>0.02452316076294278</v>
+        <v>0.4055666003976143</v>
       </c>
       <c r="C341" t="n">
-        <v>7.938186458227302e-06</v>
+        <v>0.0006911111843136545</v>
       </c>
       <c r="D341" t="n">
-        <v>0.302870871474194</v>
+        <v>0.4638285059165234</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="inlineStr">
         <is>
-          <t>Italy_16</t>
+          <t>Switzerland_15</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>0.008174386920980926</v>
+        <v>0.3141153081510934</v>
       </c>
       <c r="C342" t="n">
-        <v>3.101998679789362e-07</v>
+        <v>0.0002265056707512328</v>
       </c>
       <c r="D342" t="n">
-        <v>0.2712089922004131</v>
+        <v>0.4429916458124568</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="inlineStr">
         <is>
-          <t>United States_6</t>
+          <t>Switzerland_17</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>0.0108991825613079</v>
+        <v>0.3001988071570576</v>
       </c>
       <c r="C343" t="n">
-        <v>3.387904652000004e-05</v>
+        <v>0.0004947459885203433</v>
       </c>
       <c r="D343" t="n">
-        <v>0.2882586803065794</v>
+        <v>0.4386563183178509</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="inlineStr">
         <is>
-          <t>Greece_18</t>
+          <t>Belgium_6</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>0.002724795640326975</v>
+        <v>0.2087475149105368</v>
       </c>
       <c r="C344" t="n">
-        <v>0</v>
+        <v>0.0003185613873900766</v>
       </c>
       <c r="D344" t="n">
-        <v>0.08487233827833282</v>
+        <v>0.4239464331807948</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="inlineStr">
         <is>
-          <t>Ukraine_18</t>
+          <t>Canada_15</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>0.002724795640326975</v>
+        <v>0.3081510934393638</v>
       </c>
       <c r="C345" t="n">
-        <v>0</v>
+        <v>0.0002146501136835012</v>
       </c>
       <c r="D345" t="n">
-        <v>0.2425202181177125</v>
+        <v>0.4143274804951802</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="inlineStr">
         <is>
-          <t>Iceland_6</t>
+          <t>Finland_9</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>0.002724795640326975</v>
+        <v>0.05964214711729621</v>
       </c>
       <c r="C346" t="n">
-        <v>0</v>
+        <v>3.940520190696136e-05</v>
       </c>
       <c r="D346" t="n">
-        <v>0.2358480111599286</v>
+        <v>0.3740893033302461</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="inlineStr">
         <is>
-          <t>Iceland_9</t>
+          <t>France_7</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>0.002724795640326975</v>
+        <v>0.194831013916501</v>
       </c>
       <c r="C347" t="n">
-        <v>0</v>
+        <v>0.0005226087943209002</v>
       </c>
       <c r="D347" t="n">
-        <v>0.1879589488367019</v>
+        <v>0.4189037398379477</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="inlineStr">
         <is>
-          <t>New Zealand_11</t>
+          <t>France_10</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>0.008174386920980926</v>
+        <v>0.3399602385685884</v>
       </c>
       <c r="C348" t="n">
-        <v>0.004002243868626577</v>
+        <v>0.004366840485696919</v>
       </c>
       <c r="D348" t="n">
-        <v>0.2524570260303461</v>
+        <v>0.4498628665960441</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="inlineStr">
         <is>
-          <t>Romania_19</t>
+          <t>France_17</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>0.002724795640326975</v>
+        <v>0.2842942345924453</v>
       </c>
       <c r="C349" t="n">
-        <v>0</v>
+        <v>0.0001256576088706763</v>
       </c>
       <c r="D349" t="n">
-        <v>0.2215381318311239</v>
+        <v>0.4351718462394213</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="inlineStr">
         <is>
-          <t>Iceland_20</t>
+          <t>Georgia_15</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>0.002724795640326975</v>
+        <v>0.1172962226640159</v>
       </c>
       <c r="C350" t="n">
-        <v>0</v>
+        <v>7.023206540284415e-06</v>
       </c>
       <c r="D350" t="n">
-        <v>0.08383730976274339</v>
+        <v>0.4048027108286243</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="inlineStr">
         <is>
-          <t>Ireland_10</t>
+          <t>Hungary_17</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>0.002724795640326975</v>
+        <v>0.1351888667992047</v>
       </c>
       <c r="C351" t="n">
-        <v>0</v>
+        <v>7.76892900016771e-06</v>
       </c>
       <c r="D351" t="n">
-        <v>0.2554001778882128</v>
+        <v>0.4018334977907615</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="inlineStr">
         <is>
-          <t>Israel_6</t>
+          <t>Iceland_19</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>0.005449591280653951</v>
+        <v>0.2982107355864811</v>
       </c>
       <c r="C352" t="n">
-        <v>0</v>
+        <v>0.0003077960652411119</v>
       </c>
       <c r="D352" t="n">
-        <v>0.2104257602237997</v>
+        <v>0.4390469294650618</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="inlineStr">
         <is>
-          <t>Sri Lanka_12</t>
+          <t>Ireland_10</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>0.008174386920980926</v>
+        <v>0.05367793240556659</v>
       </c>
       <c r="C353" t="n">
-        <v>4.086191758467217e-05</v>
+        <v>3.587333535535324e-06</v>
       </c>
       <c r="D353" t="n">
-        <v>0.2164313252795832</v>
+        <v>0.3709930036036602</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="inlineStr">
         <is>
-          <t>Turkey_11</t>
+          <t>Italy_9</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>0.008174386920980926</v>
+        <v>0.320079522862823</v>
       </c>
       <c r="C354" t="n">
-        <v>1.152006086249871e-06</v>
+        <v>0.0003129251210841265</v>
       </c>
       <c r="D354" t="n">
-        <v>0.2853385489575981</v>
+        <v>0.4441889205308688</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="inlineStr">
         <is>
-          <t>United States_9</t>
+          <t>Italy_19</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>0.005449591280653951</v>
+        <v>0.3320079522862823</v>
       </c>
       <c r="C355" t="n">
-        <v>0</v>
+        <v>0.0007938726960719052</v>
       </c>
       <c r="D355" t="n">
-        <v>0.2773121481430384</v>
+        <v>0.447007889201509</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="inlineStr">
         <is>
-          <t>Sweden_15</t>
+          <t>Switzerland_13</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>0.002724795640326975</v>
+        <v>0.2902584493041749</v>
       </c>
       <c r="C356" t="n">
-        <v>0</v>
+        <v>0.0003134354978005927</v>
       </c>
       <c r="D356" t="n">
-        <v>0.1934925783412172</v>
+        <v>0.4367136419745478</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="inlineStr">
         <is>
-          <t>Sweden_11</t>
+          <t>United Kingdom_18</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>0.02997275204359673</v>
+        <v>0.2962226640159045</v>
       </c>
       <c r="C357" t="n">
-        <v>8.094448275224977e-05</v>
+        <v>0.0002915963217161613</v>
       </c>
       <c r="D357" t="n">
-        <v>0.3216459010272436</v>
+        <v>0.4374886440011219</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="inlineStr">
         <is>
-          <t>Montenegro_15</t>
+          <t>Australia_17</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>0.002724795640326975</v>
+        <v>0.3658051689860835</v>
       </c>
       <c r="C358" t="n">
-        <v>0</v>
+        <v>0.001554705992550407</v>
       </c>
       <c r="D358" t="n">
-        <v>0.002724795640326975</v>
+        <v>0.4548428983295797</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="inlineStr">
         <is>
-          <t>Serbia_15</t>
+          <t>Austria_14</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>0.002724795640326975</v>
+        <v>0.2147117296222664</v>
       </c>
       <c r="C359" t="n">
-        <v>0</v>
+        <v>0.0004649395421380229</v>
       </c>
       <c r="D359" t="n">
-        <v>0.002724795640326975</v>
+        <v>0.4228556619118906</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="inlineStr">
         <is>
-          <t>Montenegro_21</t>
+          <t>Finland_17</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>0.002724795640326975</v>
+        <v>0.2345924453280318</v>
       </c>
       <c r="C360" t="n">
-        <v>0</v>
+        <v>0.0002195946024777221</v>
       </c>
       <c r="D360" t="n">
-        <v>0.002724795640326975</v>
+        <v>0.4261449453666935</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="inlineStr">
         <is>
-          <t>Serbia_21</t>
+          <t>Greece_16</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>0.002724795640326975</v>
+        <v>0.3856858846918489</v>
       </c>
       <c r="C361" t="n">
-        <v>0</v>
+        <v>0.001417379657742242</v>
       </c>
       <c r="D361" t="n">
-        <v>0.002724795640326975</v>
+        <v>0.4607941138217424</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="inlineStr">
         <is>
-          <t>Sweden_8</t>
+          <t>Iceland_11</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>0.008174386920980926</v>
+        <v>0.09542743538767395</v>
       </c>
       <c r="C362" t="n">
-        <v>5.825848949090115e-06</v>
+        <v>0.0001400649488230022</v>
       </c>
       <c r="D362" t="n">
-        <v>0.2608054726583337</v>
+        <v>0.3795609713543221</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="inlineStr">
         <is>
-          <t>Sweden_10</t>
+          <t>Ireland_14</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>0.005449591280653951</v>
+        <v>0.3300198807157057</v>
       </c>
       <c r="C363" t="n">
-        <v>0</v>
+        <v>0.00151335784708853</v>
       </c>
       <c r="D363" t="n">
-        <v>0.2253359283768003</v>
+        <v>0.4531706817916033</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="inlineStr">
         <is>
-          <t>New Zealand_6</t>
+          <t>Italy_8</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>0.002724795640326975</v>
+        <v>0.2186878727634195</v>
       </c>
       <c r="C364" t="n">
-        <v>0</v>
+        <v>0.0001365116429121639</v>
       </c>
       <c r="D364" t="n">
-        <v>0.2495809333287345</v>
+        <v>0.3998781036409281</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="inlineStr">
         <is>
-          <t>Sweden_9</t>
+          <t>Portugal_19</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>0.002724795640326975</v>
+        <v>0.2862823061630219</v>
       </c>
       <c r="C365" t="n">
-        <v>0</v>
+        <v>0.0003246308659967604</v>
       </c>
       <c r="D365" t="n">
-        <v>0.2082037353006339</v>
+        <v>0.4363271697250127</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="inlineStr">
         <is>
-          <t>New Zealand_14</t>
+          <t>Switzerland_9</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>0.002724795640326975</v>
+        <v>0.08349900596421471</v>
       </c>
       <c r="C366" t="n">
-        <v>0</v>
+        <v>0.0001438993223314251</v>
       </c>
       <c r="D366" t="n">
-        <v>0.2495809333287345</v>
+        <v>0.3763738181597439</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="inlineStr">
         <is>
-          <t>South Africa_19</t>
+          <t>Switzerland_18</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>0.002724795640326975</v>
+        <v>0.1093439363817097</v>
       </c>
       <c r="C367" t="n">
-        <v>0</v>
+        <v>3.288961943563975e-06</v>
       </c>
       <c r="D367" t="n">
-        <v>0.2090868900633089</v>
+        <v>0.3746578281073438</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="inlineStr">
         <is>
-          <t>Sweden_12</t>
+          <t>Australia_18</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>0.01634877384196185</v>
+        <v>0.08151093439363816</v>
       </c>
       <c r="C368" t="n">
-        <v>4.449779391756614e-05</v>
+        <v>1.036151519775198e-05</v>
       </c>
       <c r="D368" t="n">
-        <v>0.2836963127046047</v>
+        <v>0.3909989704910899</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="inlineStr">
         <is>
+          <t>Australia_19</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>0.3777335984095427</v>
+      </c>
+      <c r="C369" t="n">
+        <v>0.001335742006921753</v>
+      </c>
+      <c r="D369" t="n">
+        <v>0.4586508853853623</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="inlineStr">
+        <is>
+          <t>Italy_18</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>0.2166998011928429</v>
+      </c>
+      <c r="C370" t="n">
+        <v>0.0005241338771016739</v>
+      </c>
+      <c r="D370" t="n">
+        <v>0.4235822180320141</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="inlineStr">
+        <is>
+          <t>Luxembourg_15</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>0.1888667992047713</v>
+      </c>
+      <c r="C371" t="n">
+        <v>2.738933733874293e-05</v>
+      </c>
+      <c r="D371" t="n">
+        <v>0.4122489145395187</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="inlineStr">
+        <is>
+          <t>Luxembourg_16</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>0.2087475149105368</v>
+      </c>
+      <c r="C372" t="n">
+        <v>4.218782300900883e-05</v>
+      </c>
+      <c r="D372" t="n">
+        <v>0.4199741923247567</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="inlineStr">
+        <is>
+          <t>South Africa_18</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>0.1113320079522863</v>
+      </c>
+      <c r="C373" t="n">
+        <v>5.066065603578064e-05</v>
+      </c>
+      <c r="D373" t="n">
+        <v>0.4041390998272659</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="inlineStr">
+        <is>
+          <t>Australia_20</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>0.06560636182902584</v>
+      </c>
+      <c r="C374" t="n">
+        <v>0.0001395685961853872</v>
+      </c>
+      <c r="D374" t="n">
+        <v>0.2635220212663091</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="inlineStr">
+        <is>
+          <t>Austria_20</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>0.06759443339960237</v>
+      </c>
+      <c r="C375" t="n">
+        <v>6.336799183231519e-05</v>
+      </c>
+      <c r="D375" t="n">
+        <v>0.2612876003122758</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="inlineStr">
+        <is>
+          <t>Belgium_19</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>0.1351888667992047</v>
+      </c>
+      <c r="C376" t="n">
+        <v>0.01060086389891671</v>
+      </c>
+      <c r="D376" t="n">
+        <v>0.3358649194749758</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="inlineStr">
+        <is>
+          <t>Belgium_20</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>0.1053677932405566</v>
+      </c>
+      <c r="C377" t="n">
+        <v>0.0007301758689826553</v>
+      </c>
+      <c r="D377" t="n">
+        <v>0.2915728573561587</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="inlineStr">
+        <is>
+          <t>Canada_20</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>0.07952286282306162</v>
+      </c>
+      <c r="C378" t="n">
+        <v>0.001042910128671383</v>
+      </c>
+      <c r="D378" t="n">
+        <v>0.2643698132918308</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="inlineStr">
+        <is>
+          <t>Finland_20</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>0.1033797216699801</v>
+      </c>
+      <c r="C379" t="n">
+        <v>0.006493523227909324</v>
+      </c>
+      <c r="D379" t="n">
+        <v>0.3313506060411723</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="inlineStr">
+        <is>
+          <t>Germany_21</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>0.121272365805169</v>
+      </c>
+      <c r="C380" t="n">
+        <v>0.001981634891622182</v>
+      </c>
+      <c r="D380" t="n">
+        <v>0.2940069778111297</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="inlineStr">
+        <is>
+          <t>Iceland_20</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>0.06958250497017891</v>
+      </c>
+      <c r="C381" t="n">
+        <v>0.001581029067795693</v>
+      </c>
+      <c r="D381" t="n">
+        <v>0.2893484165429955</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="inlineStr">
+        <is>
+          <t>Israel_20</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>0.03379721669980119</v>
+      </c>
+      <c r="C382" t="n">
+        <v>0.0003935515508734413</v>
+      </c>
+      <c r="D382" t="n">
+        <v>0.282388145354676</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="inlineStr">
+        <is>
+          <t>Israel_21</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>0.1033797216699801</v>
+      </c>
+      <c r="C383" t="n">
+        <v>0.0006355335776861425</v>
+      </c>
+      <c r="D383" t="n">
+        <v>0.2895183216613414</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="inlineStr">
+        <is>
+          <t>Japan_20</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>0.02584493041749503</v>
+      </c>
+      <c r="C384" t="n">
+        <v>2.023328116453734e-06</v>
+      </c>
+      <c r="D384" t="n">
+        <v>0.2588187410967268</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="inlineStr">
+        <is>
+          <t>Lithuania_21</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>0.1192842942345924</v>
+      </c>
+      <c r="C385" t="n">
+        <v>0.001390372523627115</v>
+      </c>
+      <c r="D385" t="n">
+        <v>0.2938317650710753</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="inlineStr">
+        <is>
+          <t>New Zealand_19</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>0.08349900596421471</v>
+      </c>
+      <c r="C386" t="n">
+        <v>0.0006651501758770595</v>
+      </c>
+      <c r="D386" t="n">
+        <v>0.2893484165429955</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="inlineStr">
+        <is>
+          <t>New Zealand_20</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>0.05964214711729621</v>
+      </c>
+      <c r="C387" t="n">
+        <v>9.693585830703099e-05</v>
+      </c>
+      <c r="D387" t="n">
+        <v>0.2622604796751407</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="inlineStr">
+        <is>
+          <t>New Zealand_21</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>0.04174950298210735</v>
+      </c>
+      <c r="C388" t="n">
+        <v>4.000450551469786e-05</v>
+      </c>
+      <c r="D388" t="n">
+        <v>0.260184539202778</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="inlineStr">
+        <is>
+          <t>Norway_20</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>0.08349900596421471</v>
+      </c>
+      <c r="C389" t="n">
+        <v>0.0001596112918127019</v>
+      </c>
+      <c r="D389" t="n">
+        <v>0.2638040137984293</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="inlineStr">
+        <is>
+          <t>Slovakia_20</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>0.0934393638170974</v>
+      </c>
+      <c r="C390" t="n">
+        <v>0.000452473928726579</v>
+      </c>
+      <c r="D390" t="n">
+        <v>0.2908847798166752</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="inlineStr">
+        <is>
+          <t>United States_20</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>0.02584493041749503</v>
+      </c>
+      <c r="C391" t="n">
+        <v>6.122290821652498e-05</v>
+      </c>
+      <c r="D391" t="n">
+        <v>0.2570644951977396</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="inlineStr">
+        <is>
+          <t>United States_21</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>0.04771371769383698</v>
+      </c>
+      <c r="C392" t="n">
+        <v>0.0002040344864306309</v>
+      </c>
+      <c r="D392" t="n">
+        <v>0.2605970939689558</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="inlineStr">
+        <is>
+          <t>Australia_21</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>0.0934393638170974</v>
+      </c>
+      <c r="C393" t="n">
+        <v>0.000528487208005947</v>
+      </c>
+      <c r="D393" t="n">
+        <v>0.2888398956000378</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="inlineStr">
+        <is>
+          <t>Germany_20</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>0.09145129224652086</v>
+      </c>
+      <c r="C394" t="n">
+        <v>0.0007335035240675582</v>
+      </c>
+      <c r="D394" t="n">
+        <v>0.2907132675644248</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="inlineStr">
+        <is>
+          <t>Greece_18</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>0.05168986083499005</v>
+      </c>
+      <c r="C395" t="n">
+        <v>0.01908354444701836</v>
+      </c>
+      <c r="D395" t="n">
+        <v>0.3617385926553664</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="inlineStr">
+        <is>
+          <t>Greece_20</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>0.09145129224652086</v>
+      </c>
+      <c r="C396" t="n">
+        <v>0.0003399149956896214</v>
+      </c>
+      <c r="D396" t="n">
+        <v>0.290541957448005</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="inlineStr">
+        <is>
+          <t>Italy_20</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>0.1192842942345924</v>
+      </c>
+      <c r="C397" t="n">
+        <v>0.001123212770816999</v>
+      </c>
+      <c r="D397" t="n">
+        <v>0.293656761041849</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="inlineStr">
+        <is>
+          <t>Netherlands_21</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>0.09145129224652086</v>
+      </c>
+      <c r="C398" t="n">
+        <v>0.0005205295100560044</v>
+      </c>
+      <c r="D398" t="n">
+        <v>0.290541957448005</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="inlineStr">
+        <is>
+          <t>Sweden_19</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>0.04970178926441352</v>
+      </c>
+      <c r="C399" t="n">
+        <v>0.0001403257162538046</v>
+      </c>
+      <c r="D399" t="n">
+        <v>0.2820650467901971</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="inlineStr">
+        <is>
+          <t>Switzerland_20</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>0.0636182902584493</v>
+      </c>
+      <c r="C400" t="n">
+        <v>6.400756763592195e-05</v>
+      </c>
+      <c r="D400" t="n">
+        <v>0.2603219122435398</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="inlineStr">
+        <is>
+          <t>Austria_6</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>0.03578528827037773</v>
+      </c>
+      <c r="C401" t="n">
+        <v>2.663186892936594e-05</v>
+      </c>
+      <c r="D401" t="n">
+        <v>0.3598902932768354</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="inlineStr">
+        <is>
+          <t>Luxembourg_6</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>0.02186878727634195</v>
+      </c>
+      <c r="C402" t="n">
+        <v>6.347511430387279e-06</v>
+      </c>
+      <c r="D402" t="n">
+        <v>0.3358649194749758</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="inlineStr">
+        <is>
+          <t>Luxembourg_12</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>0.1868787276341948</v>
+      </c>
+      <c r="C403" t="n">
+        <v>0.0002498904122648338</v>
+      </c>
+      <c r="D403" t="n">
+        <v>0.3938096659658661</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="inlineStr">
+        <is>
+          <t>Turkey_19</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>0.2703777335984095</v>
+      </c>
+      <c r="C404" t="n">
+        <v>0.0006249988756370459</v>
+      </c>
+      <c r="D404" t="n">
+        <v>0.4344050236028761</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="inlineStr">
+        <is>
+          <t>Austria_7</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>0.001988071570576541</v>
+      </c>
+      <c r="C405" t="n">
+        <v>0</v>
+      </c>
+      <c r="D405" t="n">
+        <v>0.2636629421332964</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="inlineStr">
+        <is>
+          <t>Israel_6</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>0.02186878727634195</v>
+      </c>
+      <c r="C406" t="n">
+        <v>0.004014492680627527</v>
+      </c>
+      <c r="D406" t="n">
+        <v>0.3591039342966237</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="inlineStr">
+        <is>
+          <t>Denmark_8</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>0.001988071570576541</v>
+      </c>
+      <c r="C407" t="n">
+        <v>0</v>
+      </c>
+      <c r="D407" t="n">
+        <v>0.2752929658231515</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="inlineStr">
+        <is>
+          <t>Japan_14</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>0.02385685884691849</v>
+      </c>
+      <c r="C408" t="n">
+        <v>1.111864115956193e-05</v>
+      </c>
+      <c r="D408" t="n">
+        <v>0.3583210042073142</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="inlineStr">
+        <is>
+          <t>Luxembourg_10</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>0.03777335984095427</v>
+      </c>
+      <c r="C409" t="n">
+        <v>5.513404296182336e-06</v>
+      </c>
+      <c r="D409" t="n">
+        <v>0.3585816013012832</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="inlineStr">
+        <is>
           <t>Sweden_13</t>
         </is>
       </c>
-      <c r="B369" t="n">
-        <v>0.002724795640326975</v>
-      </c>
-      <c r="C369" t="n">
+      <c r="B410" t="n">
+        <v>0.073558648111332</v>
+      </c>
+      <c r="C410" t="n">
+        <v>1.881211761521966e-05</v>
+      </c>
+      <c r="D410" t="n">
+        <v>0.3749427390032429</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="inlineStr">
+        <is>
+          <t>France_16</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>0.246520874751491</v>
+      </c>
+      <c r="C411" t="n">
+        <v>0.0001338108138524304</v>
+      </c>
+      <c r="D411" t="n">
+        <v>0.4034776610386779</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="inlineStr">
+        <is>
+          <t>Sweden_16</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>0.001988071570576541</v>
+      </c>
+      <c r="C412" t="n">
         <v>0</v>
       </c>
-      <c r="D369" t="n">
-        <v>0.2395734353945326</v>
+      <c r="D412" t="n">
+        <v>0.2817426867367225</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="inlineStr">
+        <is>
+          <t>Italy_7</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>0.1113320079522863</v>
+      </c>
+      <c r="C413" t="n">
+        <v>0.0001215416534377852</v>
+      </c>
+      <c r="D413" t="n">
+        <v>0.3822090711544686</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="inlineStr">
+        <is>
+          <t>Italy_11</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>0.2624254473161033</v>
+      </c>
+      <c r="C414" t="n">
+        <v>0.00030314948729989</v>
+      </c>
+      <c r="D414" t="n">
+        <v>0.4317422957874469</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="inlineStr">
+        <is>
+          <t>Czech Republic_19</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>0.04771371769383698</v>
+      </c>
+      <c r="C415" t="n">
+        <v>0.0615829931452855</v>
+      </c>
+      <c r="D415" t="n">
+        <v>0.3732397439737051</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="inlineStr">
+        <is>
+          <t>Denmark_16</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>0.1252485089463221</v>
+      </c>
+      <c r="C416" t="n">
+        <v>1.465895559464075e-05</v>
+      </c>
+      <c r="D416" t="n">
+        <v>0.376086729053596</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="inlineStr">
+        <is>
+          <t>Denmark_18</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>0.1848906560636183</v>
+      </c>
+      <c r="C417" t="n">
+        <v>1.714421727709432e-05</v>
+      </c>
+      <c r="D417" t="n">
+        <v>0.4132855840647648</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="inlineStr">
+        <is>
+          <t>Ireland_15</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>0.07952286282306162</v>
+      </c>
+      <c r="C418" t="n">
+        <v>1.919261256157032e-06</v>
+      </c>
+      <c r="D418" t="n">
+        <v>0.370157433775724</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="inlineStr">
+        <is>
+          <t>Poland_19</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>0.06759443339960237</v>
+      </c>
+      <c r="C419" t="n">
+        <v>6.18091027314725e-05</v>
+      </c>
+      <c r="D419" t="n">
+        <v>0.3729574143640427</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="inlineStr">
+        <is>
+          <t>Portugal_14</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>0.2405566600397614</v>
+      </c>
+      <c r="C420" t="n">
+        <v>0.0004278625288822881</v>
+      </c>
+      <c r="D420" t="n">
+        <v>0.4041390998272659</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="inlineStr">
+        <is>
+          <t>Romania_19</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>0.121272365805169</v>
+      </c>
+      <c r="C421" t="n">
+        <v>2.181909647141171e-05</v>
+      </c>
+      <c r="D421" t="n">
+        <v>0.4041390998272659</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="inlineStr">
+        <is>
+          <t>Switzerland_10</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>0.1272365805168986</v>
+      </c>
+      <c r="C422" t="n">
+        <v>0.000145400603419631</v>
+      </c>
+      <c r="D422" t="n">
+        <v>0.4048027108286243</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="inlineStr">
+        <is>
+          <t>Turkey_10</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>0.08747514910536779</v>
+      </c>
+      <c r="C423" t="n">
+        <v>0.1187033466344164</v>
+      </c>
+      <c r="D423" t="n">
+        <v>0.4642652559220946</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="inlineStr">
+        <is>
+          <t>Turkey_11</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>0.168986083499006</v>
+      </c>
+      <c r="C424" t="n">
+        <v>0.000105863184463447</v>
+      </c>
+      <c r="D424" t="n">
+        <v>0.3919314004684137</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="inlineStr">
+        <is>
+          <t>Turkey_16</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>0.0636182902584493</v>
+      </c>
+      <c r="C425" t="n">
+        <v>0.08589321462012779</v>
+      </c>
+      <c r="D425" t="n">
+        <v>0.4552628825385636</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="inlineStr">
+        <is>
+          <t>Denmark_19</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>0.06163021868787276</v>
+      </c>
+      <c r="C426" t="n">
+        <v>2.195946451543492e-06</v>
+      </c>
+      <c r="D426" t="n">
+        <v>0.3598902932768354</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="inlineStr">
+        <is>
+          <t>Switzerland_19</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>0.005964214711729622</v>
+      </c>
+      <c r="C427" t="n">
+        <v>0</v>
+      </c>
+      <c r="D427" t="n">
+        <v>0.329138652729816</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="inlineStr">
+        <is>
+          <t>Austria_18</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>0.2842942345924453</v>
+      </c>
+      <c r="C428" t="n">
+        <v>0.0001940431298842221</v>
+      </c>
+      <c r="D428" t="n">
+        <v>0.4355562736654279</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="inlineStr">
+        <is>
+          <t>Austria_19</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
+        <v>0.08548707753479125</v>
+      </c>
+      <c r="C429" t="n">
+        <v>0.0005999206211777551</v>
+      </c>
+      <c r="D429" t="n">
+        <v>0.2895183216613414</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="inlineStr">
+        <is>
+          <t>Bulgaria_19</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
+        <v>0.1351888667992047</v>
+      </c>
+      <c r="C430" t="n">
+        <v>0.04586042658523468</v>
+      </c>
+      <c r="D430" t="n">
+        <v>0.3684975349695549</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="inlineStr">
+        <is>
+          <t>Bulgaria_20</t>
+        </is>
+      </c>
+      <c r="B431" t="n">
+        <v>0.04970178926441352</v>
+      </c>
+      <c r="C431" t="n">
+        <v>0.004328882500000406</v>
+      </c>
+      <c r="D431" t="n">
+        <v>0.323099411395324</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="inlineStr">
+        <is>
+          <t>Czech Republic_20</t>
+        </is>
+      </c>
+      <c r="B432" t="n">
+        <v>0.073558648111332</v>
+      </c>
+      <c r="C432" t="n">
+        <v>0.001604043337703624</v>
+      </c>
+      <c r="D432" t="n">
+        <v>0.328699801192843</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="inlineStr">
+        <is>
+          <t>Denmark_20</t>
+        </is>
+      </c>
+      <c r="B433" t="n">
+        <v>0.04970178926441352</v>
+      </c>
+      <c r="C433" t="n">
+        <v>2.361202395417342e-05</v>
+      </c>
+      <c r="D433" t="n">
+        <v>0.2585473003614391</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="inlineStr">
+        <is>
+          <t>Estonia_20</t>
+        </is>
+      </c>
+      <c r="B434" t="n">
+        <v>0.09741550695825049</v>
+      </c>
+      <c r="C434" t="n">
+        <v>0.003877100939846129</v>
+      </c>
+      <c r="D434" t="n">
+        <v>0.3317965691717796</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="inlineStr">
+        <is>
+          <t>France_20</t>
+        </is>
+      </c>
+      <c r="B435" t="n">
+        <v>0.09145129224652086</v>
+      </c>
+      <c r="C435" t="n">
+        <v>0.0007711343003833848</v>
+      </c>
+      <c r="D435" t="n">
+        <v>0.2907132675644248</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="inlineStr">
+        <is>
+          <t>Hungary_20</t>
+        </is>
+      </c>
+      <c r="B436" t="n">
+        <v>0.06759443339960237</v>
+      </c>
+      <c r="C436" t="n">
+        <v>0.0002237092115645309</v>
+      </c>
+      <c r="D436" t="n">
+        <v>0.2814210626651053</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="inlineStr">
+        <is>
+          <t>Iceland_21</t>
+        </is>
+      </c>
+      <c r="B437" t="n">
+        <v>0.03976143141153081</v>
+      </c>
+      <c r="C437" t="n">
+        <v>1.004961396222308e-05</v>
+      </c>
+      <c r="D437" t="n">
+        <v>0.2593633360280192</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="inlineStr">
+        <is>
+          <t>Ireland_20</t>
+        </is>
+      </c>
+      <c r="B438" t="n">
+        <v>0.08548707753479125</v>
+      </c>
+      <c r="C438" t="n">
+        <v>0.03708318265575328</v>
+      </c>
+      <c r="D438" t="n">
+        <v>0.3665797039325386</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="inlineStr">
+        <is>
+          <t>Moldova_20</t>
+        </is>
+      </c>
+      <c r="B439" t="n">
+        <v>0.04572564612326043</v>
+      </c>
+      <c r="C439" t="n">
+        <v>0.002177822318443939</v>
+      </c>
+      <c r="D439" t="n">
+        <v>0.3241615396379122</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="inlineStr">
+        <is>
+          <t>Netherlands_20</t>
+        </is>
+      </c>
+      <c r="B440" t="n">
+        <v>0.05964214711729621</v>
+      </c>
+      <c r="C440" t="n">
+        <v>3.011517788480384e-05</v>
+      </c>
+      <c r="D440" t="n">
+        <v>0.2612876003122758</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="inlineStr">
+        <is>
+          <t>Norway_19</t>
+        </is>
+      </c>
+      <c r="B441" t="n">
+        <v>0.05566600397614314</v>
+      </c>
+      <c r="C441" t="n">
+        <v>4.624887543495052e-05</v>
+      </c>
+      <c r="D441" t="n">
+        <v>0.2596364938332093</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="inlineStr">
+        <is>
+          <t>Poland_20</t>
+        </is>
+      </c>
+      <c r="B442" t="n">
+        <v>0.1073558648111332</v>
+      </c>
+      <c r="C442" t="n">
+        <v>0.0004313734935659816</v>
+      </c>
+      <c r="D442" t="n">
+        <v>0.2927848585446938</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="inlineStr">
+        <is>
+          <t>Slovenia_20</t>
+        </is>
+      </c>
+      <c r="B443" t="n">
+        <v>0.08151093439363816</v>
+      </c>
+      <c r="C443" t="n">
+        <v>0.000442665038283139</v>
+      </c>
+      <c r="D443" t="n">
+        <v>0.2893484165429955</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="inlineStr">
+        <is>
+          <t>Sweden_20</t>
+        </is>
+      </c>
+      <c r="B444" t="n">
+        <v>0.04174950298210735</v>
+      </c>
+      <c r="C444" t="n">
+        <v>5.744816443309474e-06</v>
+      </c>
+      <c r="D444" t="n">
+        <v>0.258006123385277</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="inlineStr">
+        <is>
+          <t>Sweden_21</t>
+        </is>
+      </c>
+      <c r="B445" t="n">
+        <v>0.04174950298210735</v>
+      </c>
+      <c r="C445" t="n">
+        <v>3.971071956642798e-06</v>
+      </c>
+      <c r="D445" t="n">
+        <v>0.2582764283862045</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="inlineStr">
+        <is>
+          <t>Belgium_9</t>
+        </is>
+      </c>
+      <c r="B446" t="n">
+        <v>0.04970178926441352</v>
+      </c>
+      <c r="C446" t="n">
+        <v>3.788197013275381e-06</v>
+      </c>
+      <c r="D446" t="n">
+        <v>0.370157433775724</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="1" t="inlineStr">
+        <is>
+          <t>Cyprus_19</t>
+        </is>
+      </c>
+      <c r="B447" t="n">
+        <v>0.003976143141153081</v>
+      </c>
+      <c r="C447" t="n">
+        <v>4.659178745199299e-07</v>
+      </c>
+      <c r="D447" t="n">
+        <v>0.2511715240903028</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="inlineStr">
+        <is>
+          <t>Cyprus_20</t>
+        </is>
+      </c>
+      <c r="B448" t="n">
+        <v>0.05765407554671968</v>
+      </c>
+      <c r="C448" t="n">
+        <v>0.000247348910105557</v>
+      </c>
+      <c r="D448" t="n">
+        <v>0.326739365002826</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="inlineStr">
+        <is>
+          <t>Bolivia_18</t>
+        </is>
+      </c>
+      <c r="B449" t="n">
+        <v>0.09145129224652086</v>
+      </c>
+      <c r="C449" t="n">
+        <v>0.0002430067062462463</v>
+      </c>
+      <c r="D449" t="n">
+        <v>0.2908847798166752</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="inlineStr">
+        <is>
+          <t>Montenegro_21</t>
+        </is>
+      </c>
+      <c r="B450" t="n">
+        <v>0.05765407554671968</v>
+      </c>
+      <c r="C450" t="n">
+        <v>0.0006766097026402599</v>
+      </c>
+      <c r="D450" t="n">
+        <v>0.2876602694219745</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="inlineStr">
+        <is>
+          <t>Serbia_21</t>
+        </is>
+      </c>
+      <c r="B451" t="n">
+        <v>0.05765407554671968</v>
+      </c>
+      <c r="C451" t="n">
+        <v>0.0001374555482383736</v>
+      </c>
+      <c r="D451" t="n">
+        <v>0.2881646416068173</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="inlineStr">
+        <is>
+          <t>Bolivia_19</t>
+        </is>
+      </c>
+      <c r="B452" t="n">
+        <v>0.03180914512922465</v>
+      </c>
+      <c r="C452" t="n">
+        <v>1.774916733778034e-05</v>
+      </c>
+      <c r="D452" t="n">
+        <v>0.2769942144883508</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="inlineStr">
+        <is>
+          <t>Bosnia-Herzegovina_18</t>
+        </is>
+      </c>
+      <c r="B453" t="n">
+        <v>0.01391650099403578</v>
+      </c>
+      <c r="C453" t="n">
+        <v>4.279965099330208e-06</v>
+      </c>
+      <c r="D453" t="n">
+        <v>0.2567967196819086</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="inlineStr">
+        <is>
+          <t>Romania_20</t>
+        </is>
+      </c>
+      <c r="B454" t="n">
+        <v>0.03180914512922465</v>
+      </c>
+      <c r="C454" t="n">
+        <v>1.126133220080669e-05</v>
+      </c>
+      <c r="D454" t="n">
+        <v>0.2854949054946522</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="inlineStr">
+        <is>
+          <t>Panama_17</t>
+        </is>
+      </c>
+      <c r="B455" t="n">
+        <v>0.02584493041749503</v>
+      </c>
+      <c r="C455" t="n">
+        <v>6.742076520848183e-06</v>
+      </c>
+      <c r="D455" t="n">
+        <v>0.2581412051252693</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="inlineStr">
+        <is>
+          <t>Cyprus_18</t>
+        </is>
+      </c>
+      <c r="B456" t="n">
+        <v>0.01789264413518887</v>
+      </c>
+      <c r="C456" t="n">
+        <v>0.0002048820480504036</v>
+      </c>
+      <c r="D456" t="n">
+        <v>0.2819037746079271</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="inlineStr">
+        <is>
+          <t>Colombia_17</t>
+        </is>
+      </c>
+      <c r="B457" t="n">
+        <v>0.01192842942345924</v>
+      </c>
+      <c r="C457" t="n">
+        <v>3.687229287469233e-06</v>
+      </c>
+      <c r="D457" t="n">
+        <v>0.2528460009175715</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="inlineStr">
+        <is>
+          <t>Bulgaria_15</t>
+        </is>
+      </c>
+      <c r="B458" t="n">
+        <v>0.007952286282306162</v>
+      </c>
+      <c r="C458" t="n">
+        <v>0.001306899638028401</v>
+      </c>
+      <c r="D458" t="n">
+        <v>0.2144626802041168</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="inlineStr">
+        <is>
+          <t>Czech Republic_15</t>
+        </is>
+      </c>
+      <c r="B459" t="n">
+        <v>0.007952286282306162</v>
+      </c>
+      <c r="C459" t="n">
+        <v>0.001306899638028401</v>
+      </c>
+      <c r="D459" t="n">
+        <v>0.2144626802041168</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="inlineStr">
+        <is>
+          <t>Romania_15</t>
+        </is>
+      </c>
+      <c r="B460" t="n">
+        <v>0.005964214711729622</v>
+      </c>
+      <c r="C460" t="n">
+        <v>0</v>
+      </c>
+      <c r="D460" t="n">
+        <v>0.176467323475041</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="inlineStr">
+        <is>
+          <t>Slovakia_15</t>
+        </is>
+      </c>
+      <c r="B461" t="n">
+        <v>0.007952286282306162</v>
+      </c>
+      <c r="C461" t="n">
+        <v>0.001306899638028401</v>
+      </c>
+      <c r="D461" t="n">
+        <v>0.2144626802041168</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="inlineStr">
+        <is>
+          <t>Latvia_19</t>
+        </is>
+      </c>
+      <c r="B462" t="n">
+        <v>0.01192842942345924</v>
+      </c>
+      <c r="C462" t="n">
+        <v>3.993997226327262e-06</v>
+      </c>
+      <c r="D462" t="n">
+        <v>0.274679499604047</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="inlineStr">
+        <is>
+          <t>Georgia_20</t>
+        </is>
+      </c>
+      <c r="B463" t="n">
+        <v>0.005964214711729622</v>
+      </c>
+      <c r="C463" t="n">
+        <v>0</v>
+      </c>
+      <c r="D463" t="n">
+        <v>0.2548060474363124</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="inlineStr">
+        <is>
+          <t>Israel_18</t>
+        </is>
+      </c>
+      <c r="B464" t="n">
+        <v>0.007952286282306162</v>
+      </c>
+      <c r="C464" t="n">
+        <v>4.166518637377641e-06</v>
+      </c>
+      <c r="D464" t="n">
+        <v>0.2500252037470915</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="inlineStr">
+        <is>
+          <t>Sweden_10</t>
+        </is>
+      </c>
+      <c r="B465" t="n">
+        <v>0.08151093439363816</v>
+      </c>
+      <c r="C465" t="n">
+        <v>9.825787567001091e-06</v>
+      </c>
+      <c r="D465" t="n">
+        <v>0.3746578281073438</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="inlineStr">
+        <is>
+          <t>South Africa_16</t>
+        </is>
+      </c>
+      <c r="B466" t="n">
+        <v>0.001988071570576541</v>
+      </c>
+      <c r="C466" t="n">
+        <v>0</v>
+      </c>
+      <c r="D466" t="n">
+        <v>0.2762183203301201</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="inlineStr">
+        <is>
+          <t>Japan_19</t>
+        </is>
+      </c>
+      <c r="B467" t="n">
+        <v>0.003976143141153081</v>
+      </c>
+      <c r="C467" t="n">
+        <v>1.875884266143396e-05</v>
+      </c>
+      <c r="D467" t="n">
+        <v>0.2773057940322072</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="inlineStr">
+        <is>
+          <t>Chile_15</t>
+        </is>
+      </c>
+      <c r="B468" t="n">
+        <v>0.003976143141153081</v>
+      </c>
+      <c r="C468" t="n">
+        <v>0</v>
+      </c>
+      <c r="D468" t="n">
+        <v>0.2279471575539826</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="inlineStr">
+        <is>
+          <t>Panama_19</t>
+        </is>
+      </c>
+      <c r="B469" t="n">
+        <v>0.009940357852882702</v>
+      </c>
+      <c r="C469" t="n">
+        <v>5.423965157794513e-07</v>
+      </c>
+      <c r="D469" t="n">
+        <v>0.2565295014512302</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="inlineStr">
+        <is>
+          <t>Dominican Republic_18</t>
+        </is>
+      </c>
+      <c r="B470" t="n">
+        <v>0.003976143141153081</v>
+      </c>
+      <c r="C470" t="n">
+        <v>1.389579625761195e-07</v>
+      </c>
+      <c r="D470" t="n">
+        <v>0.2540183935029698</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="inlineStr">
+        <is>
+          <t>Israel_19</t>
+        </is>
+      </c>
+      <c r="B471" t="n">
+        <v>0.009940357852882702</v>
+      </c>
+      <c r="C471" t="n">
+        <v>4.121310426211757e-06</v>
+      </c>
+      <c r="D471" t="n">
+        <v>0.257601725072761</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="inlineStr">
+        <is>
+          <t>Croatia_16</t>
+        </is>
+      </c>
+      <c r="B472" t="n">
+        <v>0.001988071570576541</v>
+      </c>
+      <c r="C472" t="n">
+        <v>0</v>
+      </c>
+      <c r="D472" t="n">
+        <v>0.3095101706147297</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="inlineStr">
+        <is>
+          <t>Czech Republic_16</t>
+        </is>
+      </c>
+      <c r="B473" t="n">
+        <v>0.003976143141153081</v>
+      </c>
+      <c r="C473" t="n">
+        <v>0.00393654012181889</v>
+      </c>
+      <c r="D473" t="n">
+        <v>0.1768470953333086</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="inlineStr">
+        <is>
+          <t>Hungary_16</t>
+        </is>
+      </c>
+      <c r="B474" t="n">
+        <v>0.001988071570576541</v>
+      </c>
+      <c r="C474" t="n">
+        <v>0</v>
+      </c>
+      <c r="D474" t="n">
+        <v>0.1500912334213895</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="inlineStr">
+        <is>
+          <t>Slovenia_17</t>
+        </is>
+      </c>
+      <c r="B475" t="n">
+        <v>0.005964214711729622</v>
+      </c>
+      <c r="C475" t="n">
+        <v>0.01177793794998931</v>
+      </c>
+      <c r="D475" t="n">
+        <v>0.2150238559918292</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="inlineStr">
+        <is>
+          <t>Czech Republic_17</t>
+        </is>
+      </c>
+      <c r="B476" t="n">
+        <v>0.001988071570576541</v>
+      </c>
+      <c r="C476" t="n">
+        <v>0</v>
+      </c>
+      <c r="D476" t="n">
+        <v>0.2144626802041168</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="inlineStr">
+        <is>
+          <t>Lithuania_17</t>
+        </is>
+      </c>
+      <c r="B477" t="n">
+        <v>0.007952286282306162</v>
+      </c>
+      <c r="C477" t="n">
+        <v>0.03119925863147807</v>
+      </c>
+      <c r="D477" t="n">
+        <v>0.2736124871194586</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="inlineStr">
+        <is>
+          <t>Japan_9</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>0.005964214711729622</v>
+      </c>
+      <c r="C478" t="n">
+        <v>2.933556987718077e-07</v>
+      </c>
+      <c r="D478" t="n">
+        <v>0.3185075592953905</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="inlineStr">
+        <is>
+          <t>Denmark_17</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>0.01391650099403578</v>
+      </c>
+      <c r="C479" t="n">
+        <v>1.641368468026925e-07</v>
+      </c>
+      <c r="D479" t="n">
+        <v>0.3455148575958405</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="inlineStr">
+        <is>
+          <t>Estonia_16</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>0.001988071570576541</v>
+      </c>
+      <c r="C480" t="n">
+        <v>0</v>
+      </c>
+      <c r="D480" t="n">
+        <v>0.1765937327325446</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="inlineStr">
+        <is>
+          <t>Latvia_16</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>0.005964214711729622</v>
+      </c>
+      <c r="C481" t="n">
+        <v>0.007865159639770941</v>
+      </c>
+      <c r="D481" t="n">
+        <v>0.2148364713678712</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="inlineStr">
+        <is>
+          <t>South Africa_17</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>0.003976143141153081</v>
+      </c>
+      <c r="C482" t="n">
+        <v>0</v>
+      </c>
+      <c r="D482" t="n">
+        <v>0.3164632232280259</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="inlineStr">
+        <is>
+          <t>Finland_6</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>0.02385685884691849</v>
+      </c>
+      <c r="C483" t="n">
+        <v>8.49263180012424e-07</v>
+      </c>
+      <c r="D483" t="n">
+        <v>0.360680103722944</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="inlineStr">
+        <is>
+          <t>Sri Lanka_11</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>0.007952286282306162</v>
+      </c>
+      <c r="C484" t="n">
+        <v>2.400182989951154e-07</v>
+      </c>
+      <c r="D484" t="n">
+        <v>0.3263068840431929</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="inlineStr">
+        <is>
+          <t>Iceland_8</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>0.001988071570576541</v>
+      </c>
+      <c r="C485" t="n">
+        <v>0</v>
+      </c>
+      <c r="D485" t="n">
+        <v>0.275600727663088</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="inlineStr">
+        <is>
+          <t>Iceland_10</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>0.03578528827037773</v>
+      </c>
+      <c r="C486" t="n">
+        <v>1.35960817649721e-05</v>
+      </c>
+      <c r="D486" t="n">
+        <v>0.3673991816611508</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="inlineStr">
+        <is>
+          <t>United States_1</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>0.007952286282306162</v>
+      </c>
+      <c r="C487" t="n">
+        <v>5.657574190599148e-07</v>
+      </c>
+      <c r="D487" t="n">
+        <v>0.334952243063359</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="inlineStr">
+        <is>
+          <t>Greece_11</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>0.04174950298210735</v>
+      </c>
+      <c r="C488" t="n">
+        <v>3.557716733786023e-05</v>
+      </c>
+      <c r="D488" t="n">
+        <v>0.3617385926553664</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="inlineStr">
+        <is>
+          <t>Italy_6</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>0.001988071570576541</v>
+      </c>
+      <c r="C489" t="n">
+        <v>0</v>
+      </c>
+      <c r="D489" t="n">
+        <v>0.3008234910245664</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="inlineStr">
+        <is>
+          <t>Georgia_21</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>0.007952286282306162</v>
+      </c>
+      <c r="C490" t="n">
+        <v>2.773622586811013e-06</v>
+      </c>
+      <c r="D490" t="n">
+        <v>0.2796651740154648</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="inlineStr">
+        <is>
+          <t>Japan_13</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>0.02385685884691849</v>
+      </c>
+      <c r="C491" t="n">
+        <v>1.581352465337114e-05</v>
+      </c>
+      <c r="D491" t="n">
+        <v>0.3529346469500819</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="inlineStr">
+        <is>
+          <t>Poland_15</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>0.001988071570576541</v>
+      </c>
+      <c r="C492" t="n">
+        <v>0</v>
+      </c>
+      <c r="D492" t="n">
+        <v>0.2140901874899107</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="inlineStr">
+        <is>
+          <t>Ireland_6</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>0.001988071570576541</v>
+      </c>
+      <c r="C493" t="n">
+        <v>0</v>
+      </c>
+      <c r="D493" t="n">
+        <v>0.2966604703906525</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="inlineStr">
+        <is>
+          <t>Sri Lanka_10</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>0.005964214711729622</v>
+      </c>
+      <c r="C494" t="n">
+        <v>3.387551859024093e-06</v>
+      </c>
+      <c r="D494" t="n">
+        <v>0.3073875946317109</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="inlineStr">
+        <is>
+          <t>Northern Ireland_6</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>0.003976143141153081</v>
+      </c>
+      <c r="C495" t="n">
+        <v>0</v>
+      </c>
+      <c r="D495" t="n">
+        <v>0.305862097884159</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="inlineStr">
+        <is>
+          <t>Israel_16</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>0.01192842942345924</v>
+      </c>
+      <c r="C496" t="n">
+        <v>9.58632116895474e-07</v>
+      </c>
+      <c r="D496" t="n">
+        <v>0.334952243063359</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="inlineStr">
+        <is>
+          <t>Japan_12</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>0.003976143141153081</v>
+      </c>
+      <c r="C497" t="n">
+        <v>0</v>
+      </c>
+      <c r="D497" t="n">
+        <v>0.3150477327726929</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="inlineStr">
+        <is>
+          <t>Lithuania_16</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>0.001988071570576541</v>
+      </c>
+      <c r="C498" t="n">
+        <v>0</v>
+      </c>
+      <c r="D498" t="n">
+        <v>0.1765937327325446</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="inlineStr">
+        <is>
+          <t>South Korea_17</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>0.001988071570576541</v>
+      </c>
+      <c r="C499" t="n">
+        <v>0</v>
+      </c>
+      <c r="D499" t="n">
+        <v>0.3365526974670747</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="inlineStr">
+        <is>
+          <t>Montenegro_15</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>0.003976143141153081</v>
+      </c>
+      <c r="C500" t="n">
+        <v>7.920603866838809e-06</v>
+      </c>
+      <c r="D500" t="n">
+        <v>0.003976143141153081</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="inlineStr">
+        <is>
+          <t>North Macedonia_15</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>0.001988071570576541</v>
+      </c>
+      <c r="C501" t="n">
+        <v>0</v>
+      </c>
+      <c r="D501" t="n">
+        <v>0.002650762094102054</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="inlineStr">
+        <is>
+          <t>Serbia_15</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>0.001988071570576541</v>
+      </c>
+      <c r="C502" t="n">
+        <v>0</v>
+      </c>
+      <c r="D502" t="n">
+        <v>0.002650762094102054</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="inlineStr">
+        <is>
+          <t>North Macedonia_16</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>0.001988071570576541</v>
+      </c>
+      <c r="C503" t="n">
+        <v>0</v>
+      </c>
+      <c r="D503" t="n">
+        <v>0.001988071570576541</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="inlineStr">
+        <is>
+          <t>Romania_16</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
+        <v>0.001988071570576541</v>
+      </c>
+      <c r="C504" t="n">
+        <v>0</v>
+      </c>
+      <c r="D504" t="n">
+        <v>0.001988071570576541</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="inlineStr">
+        <is>
+          <t>Slovakia_18</t>
+        </is>
+      </c>
+      <c r="B505" t="n">
+        <v>0.001988071570576541</v>
+      </c>
+      <c r="C505" t="n">
+        <v>0</v>
+      </c>
+      <c r="D505" t="n">
+        <v>0.1767203232219586</v>
       </c>
     </row>
   </sheetData>
